--- a/Generated files/updated_dashboard.xlsx
+++ b/Generated files/updated_dashboard.xlsx
@@ -468,6 +468,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color theme="0"/>
       </left>
@@ -480,15 +489,6 @@
       <bottom style="thick">
         <color rgb="FF4E67C8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -619,20 +619,59 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -652,57 +691,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1123,9 +1123,9 @@
   </sheetPr>
   <dimension ref="A1:CP255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BB1" zoomScale="76" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="76" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CH7" sqref="CH7"/>
+      <selection pane="bottomLeft" activeCell="CL7" sqref="CL7:CN50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -1142,8 +1142,8 @@
   <sheetData>
     <row r="1" ht="7.5" customHeight="1" s="67">
       <c r="A1" s="1" t="n"/>
-      <c r="B1" s="46" t="n"/>
-      <c r="C1" s="46" t="inlineStr">
+      <c r="B1" s="59" t="n"/>
+      <c r="C1" s="59" t="inlineStr">
         <is>
           <t>Working Hours Tracker</t>
         </is>
@@ -1167,7 +1167,7 @@
       <c r="E2" s="5" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="4" t="n"/>
-      <c r="H2" s="48" t="n"/>
+      <c r="H2" s="61" t="n"/>
       <c r="W2" s="6" t="n"/>
       <c r="X2" s="7" t="n"/>
       <c r="Y2" s="6" t="n"/>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="4" ht="30" customHeight="1" s="67">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="49" t="inlineStr">
+      <c r="B4" s="62" t="inlineStr">
         <is>
           <t>Provider / Staff</t>
         </is>
@@ -1489,14 +1489,14 @@
       <c r="CC4" s="73" t="n"/>
       <c r="CD4" s="73" t="n"/>
       <c r="CE4" s="73" t="n"/>
-      <c r="CF4" s="62" t="inlineStr">
+      <c r="CF4" s="45" t="inlineStr">
         <is>
           <t>Payroll</t>
         </is>
       </c>
       <c r="CG4" s="74" t="n"/>
       <c r="CH4" s="74" t="n"/>
-      <c r="CI4" s="64" t="inlineStr">
+      <c r="CI4" s="48" t="inlineStr">
         <is>
           <t>Monthly Total</t>
         </is>
@@ -1647,27 +1647,19 @@
       <c r="BS5" s="69" t="n"/>
       <c r="BT5" s="68" t="inlineStr">
         <is>
-          <t>Apr 3w</t>
+          <t>Apr 3w - Apr 4w</t>
         </is>
       </c>
       <c r="BU5" s="69" t="n"/>
       <c r="BV5" s="68" t="inlineStr">
         <is>
-          <t>Apr 4w</t>
+          <t>Apr 5w - May 1w</t>
         </is>
       </c>
       <c r="BW5" s="69" t="n"/>
-      <c r="BX5" s="68" t="inlineStr">
-        <is>
-          <t>Apr 5w</t>
-        </is>
-      </c>
+      <c r="BX5" s="68" t="n"/>
       <c r="BY5" s="69" t="n"/>
-      <c r="BZ5" s="68" t="inlineStr">
-        <is>
-          <t>May 1w</t>
-        </is>
-      </c>
+      <c r="BZ5" s="68" t="n"/>
       <c r="CA5" s="69" t="n"/>
       <c r="CB5" s="68" t="n"/>
       <c r="CC5" s="69" t="n"/>
@@ -2159,11 +2151,7 @@
     </row>
     <row r="7" ht="24" customHeight="1" s="67">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B7" s="29" t="inlineStr"/>
       <c r="C7" s="30" t="inlineStr">
         <is>
           <t>NATHALIE FRANK</t>
@@ -2175,84 +2163,36 @@
       <c r="E7" s="31" t="n">
         <v>8.550000000000001</v>
       </c>
-      <c r="F7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="31" t="inlineStr"/>
+      <c r="G7" s="31" t="inlineStr"/>
+      <c r="H7" s="31" t="inlineStr"/>
+      <c r="I7" s="31" t="inlineStr"/>
+      <c r="J7" s="31" t="inlineStr"/>
+      <c r="K7" s="31" t="inlineStr"/>
+      <c r="L7" s="31" t="inlineStr"/>
+      <c r="M7" s="31" t="inlineStr"/>
+      <c r="N7" s="31" t="inlineStr"/>
+      <c r="O7" s="31" t="inlineStr"/>
+      <c r="P7" s="31" t="inlineStr"/>
+      <c r="Q7" s="31" t="inlineStr"/>
       <c r="R7" s="31" t="n">
         <v>8</v>
       </c>
       <c r="S7" s="31" t="n">
         <v>8.67</v>
       </c>
-      <c r="T7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="T7" s="31" t="inlineStr"/>
+      <c r="U7" s="31" t="inlineStr"/>
+      <c r="V7" s="31" t="inlineStr"/>
+      <c r="W7" s="31" t="inlineStr"/>
+      <c r="X7" s="31" t="inlineStr"/>
+      <c r="Y7" s="31" t="inlineStr"/>
+      <c r="Z7" s="31" t="inlineStr"/>
+      <c r="AA7" s="31" t="inlineStr"/>
+      <c r="AB7" s="31" t="inlineStr"/>
+      <c r="AC7" s="31" t="inlineStr"/>
+      <c r="AD7" s="31" t="inlineStr"/>
+      <c r="AE7" s="31" t="inlineStr"/>
       <c r="AF7" s="31" t="n"/>
       <c r="AG7" s="31" t="n"/>
       <c r="AH7" s="31" t="n"/>
@@ -2366,15 +2306,15 @@
         <v/>
       </c>
       <c r="CL7" s="34">
-        <f>COUNTIF($D8:$BS8,CL$5)</f>
+        <f>COUNTIF($D7:$BS7,CL$5)</f>
         <v/>
       </c>
       <c r="CM7" s="34">
-        <f>COUNTIF($D8:$BS8,CM$5)</f>
+        <f>COUNTIF($D7:$BS7,CM$5)</f>
         <v/>
       </c>
       <c r="CN7" s="34">
-        <f>COUNTIF($D8:$BS8,CN$5)</f>
+        <f>COUNTIF($D7:$BS7,CN$5)</f>
         <v/>
       </c>
       <c r="CO7" s="30" t="inlineStr">
@@ -2382,19 +2322,11 @@
           <t>NATHALIE FRANK</t>
         </is>
       </c>
-      <c r="CP7" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP7" s="29" t="inlineStr"/>
     </row>
     <row r="8" ht="24" customHeight="1" s="67">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B8" s="29" t="inlineStr"/>
       <c r="C8" s="30" t="inlineStr">
         <is>
           <t>OLENA IVANOVA</t>
@@ -2406,84 +2338,60 @@
       <c r="E8" s="31" t="n">
         <v>8.23</v>
       </c>
-      <c r="F8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="31" t="inlineStr"/>
+      <c r="G8" s="31" t="inlineStr"/>
+      <c r="H8" s="31" t="inlineStr"/>
+      <c r="I8" s="31" t="inlineStr"/>
       <c r="J8" s="31" t="n">
         <v>12</v>
       </c>
       <c r="K8" s="31" t="n">
         <v>12.02</v>
       </c>
-      <c r="L8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="L8" s="31" t="inlineStr"/>
+      <c r="M8" s="31" t="inlineStr"/>
       <c r="N8" s="31" t="n">
         <v>12</v>
       </c>
       <c r="O8" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P8" s="31" t="inlineStr">
+        <is>
+          <t>UL</t>
+        </is>
+      </c>
+      <c r="Q8" s="31" t="inlineStr"/>
+      <c r="R8" s="31" t="inlineStr">
+        <is>
+          <t>UL</t>
+        </is>
+      </c>
+      <c r="S8" s="31" t="inlineStr"/>
+      <c r="T8" s="31" t="inlineStr">
+        <is>
+          <t>UL</t>
+        </is>
+      </c>
+      <c r="U8" s="31" t="inlineStr"/>
       <c r="V8" s="31" t="n">
         <v>12</v>
       </c>
       <c r="W8" s="31" t="n">
         <v>12.08</v>
       </c>
-      <c r="X8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="X8" s="31" t="inlineStr"/>
+      <c r="Y8" s="31" t="inlineStr"/>
       <c r="Z8" s="31" t="n">
         <v>12</v>
       </c>
       <c r="AA8" s="31" t="n">
         <v>12.43</v>
       </c>
-      <c r="AB8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB8" s="31" t="inlineStr"/>
+      <c r="AC8" s="31" t="inlineStr"/>
+      <c r="AD8" s="31" t="inlineStr"/>
+      <c r="AE8" s="31" t="inlineStr"/>
       <c r="AF8" s="31" t="n"/>
       <c r="AG8" s="31" t="n"/>
       <c r="AH8" s="31" t="n"/>
@@ -2597,15 +2505,15 @@
         <v/>
       </c>
       <c r="CL8" s="34">
-        <f>COUNTIF($D9:$BS9,CL$5)</f>
+        <f>COUNTIF($D8:$BS8,CL$5)</f>
         <v/>
       </c>
       <c r="CM8" s="34">
-        <f>COUNTIF($D9:$BS9,CM$5)</f>
+        <f>COUNTIF($D8:$BS8,CM$5)</f>
         <v/>
       </c>
       <c r="CN8" s="34">
-        <f>COUNTIF($D9:$BS9,CN$5)</f>
+        <f>COUNTIF($D8:$BS8,CN$5)</f>
         <v/>
       </c>
       <c r="CO8" s="30" t="inlineStr">
@@ -2613,19 +2521,11 @@
           <t>OLENA IVANOVA</t>
         </is>
       </c>
-      <c r="CP8" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP8" s="29" t="inlineStr"/>
     </row>
     <row r="9" ht="24" customHeight="1" s="67">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B9" s="29" t="inlineStr"/>
       <c r="C9" s="30" t="inlineStr">
         <is>
           <t>ANGEL LIZEAR</t>
@@ -2643,30 +2543,18 @@
       <c r="G9" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="H9" s="31" t="inlineStr"/>
+      <c r="I9" s="31" t="inlineStr"/>
       <c r="J9" s="31" t="n">
         <v>4</v>
       </c>
       <c r="K9" s="31" t="n">
         <v>4.1</v>
       </c>
-      <c r="L9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" s="31" t="inlineStr"/>
+      <c r="M9" s="31" t="inlineStr"/>
+      <c r="N9" s="31" t="inlineStr"/>
+      <c r="O9" s="31" t="inlineStr"/>
       <c r="P9" s="31" t="n">
         <v>8</v>
       </c>
@@ -2685,30 +2573,18 @@
       <c r="U9" s="31" t="n">
         <v>3.93</v>
       </c>
-      <c r="V9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="V9" s="31" t="inlineStr"/>
+      <c r="W9" s="31" t="inlineStr"/>
       <c r="X9" s="31" t="n">
         <v>4</v>
       </c>
       <c r="Y9" s="31" t="n">
         <v>4.13</v>
       </c>
-      <c r="Z9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z9" s="31" t="inlineStr"/>
+      <c r="AA9" s="31" t="inlineStr"/>
+      <c r="AB9" s="31" t="inlineStr"/>
+      <c r="AC9" s="31" t="inlineStr"/>
       <c r="AD9" s="31" t="n">
         <v>8</v>
       </c>
@@ -2828,15 +2704,15 @@
         <v/>
       </c>
       <c r="CL9" s="34">
-        <f>COUNTIF($D10:$BS10,CL$5)</f>
+        <f>COUNTIF($D9:$BS9,CL$5)</f>
         <v/>
       </c>
       <c r="CM9" s="34">
-        <f>COUNTIF($D10:$BS10,CM$5)</f>
+        <f>COUNTIF($D9:$BS9,CM$5)</f>
         <v/>
       </c>
       <c r="CN9" s="34">
-        <f>COUNTIF($D10:$BS10,CN$5)</f>
+        <f>COUNTIF($D9:$BS9,CN$5)</f>
         <v/>
       </c>
       <c r="CO9" s="30" t="inlineStr">
@@ -2844,19 +2720,11 @@
           <t>ANGEL LIZEAR</t>
         </is>
       </c>
-      <c r="CP9" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP9" s="29" t="inlineStr"/>
     </row>
     <row r="10" ht="24" customHeight="1" s="67">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B10" s="29" t="inlineStr"/>
       <c r="C10" s="30" t="inlineStr">
         <is>
           <t>MEHAK GUPTA</t>
@@ -2868,84 +2736,52 @@
       <c r="E10" s="31" t="n">
         <v>7.75</v>
       </c>
-      <c r="F10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" s="31" t="inlineStr"/>
+      <c r="G10" s="31" t="inlineStr"/>
       <c r="H10" s="31" t="n">
         <v>8</v>
       </c>
       <c r="I10" s="31" t="n">
         <v>8.630000000000001</v>
       </c>
-      <c r="J10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" s="31" t="inlineStr"/>
+      <c r="K10" s="31" t="inlineStr"/>
+      <c r="L10" s="31" t="inlineStr"/>
+      <c r="M10" s="31" t="inlineStr"/>
       <c r="N10" s="31" t="n">
         <v>12</v>
       </c>
       <c r="O10" s="31" t="n">
         <v>12.53</v>
       </c>
-      <c r="P10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P10" s="31" t="inlineStr"/>
+      <c r="Q10" s="31" t="inlineStr"/>
       <c r="R10" s="31" t="n">
         <v>8</v>
       </c>
       <c r="S10" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="T10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="T10" s="31" t="inlineStr"/>
+      <c r="U10" s="31" t="inlineStr"/>
       <c r="V10" s="31" t="n">
         <v>8</v>
       </c>
       <c r="W10" s="31" t="n">
         <v>8.25</v>
       </c>
-      <c r="X10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="X10" s="31" t="inlineStr"/>
+      <c r="Y10" s="31" t="inlineStr"/>
+      <c r="Z10" s="31" t="inlineStr"/>
+      <c r="AA10" s="31" t="inlineStr"/>
       <c r="AB10" s="31" t="n">
         <v>12</v>
       </c>
       <c r="AC10" s="31" t="n">
         <v>9.529999999999999</v>
       </c>
-      <c r="AD10" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD10" s="31" t="inlineStr"/>
+      <c r="AE10" s="31" t="inlineStr"/>
       <c r="AF10" s="31" t="n"/>
       <c r="AG10" s="31" t="n"/>
       <c r="AH10" s="31" t="n"/>
@@ -3059,15 +2895,15 @@
         <v/>
       </c>
       <c r="CL10" s="34">
-        <f>COUNTIF($D11:$BS11,CL$5)</f>
+        <f>COUNTIF($D10:$BS10,CL$5)</f>
         <v/>
       </c>
       <c r="CM10" s="34">
-        <f>COUNTIF($D11:$BS11,CM$5)</f>
+        <f>COUNTIF($D10:$BS10,CM$5)</f>
         <v/>
       </c>
       <c r="CN10" s="34">
-        <f>COUNTIF($D11:$BS11,CN$5)</f>
+        <f>COUNTIF($D10:$BS10,CN$5)</f>
         <v/>
       </c>
       <c r="CO10" s="30" t="inlineStr">
@@ -3075,19 +2911,11 @@
           <t>MEHAK GUPTA</t>
         </is>
       </c>
-      <c r="CP10" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP10" s="29" t="inlineStr"/>
     </row>
     <row r="11" ht="24" customHeight="1" s="67">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B11" s="29" t="inlineStr"/>
       <c r="C11" s="30" t="inlineStr">
         <is>
           <t>ERIC SAFO</t>
@@ -3099,78 +2927,30 @@
       <c r="E11" s="31" t="n">
         <v>8.58</v>
       </c>
-      <c r="F11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" s="31" t="inlineStr"/>
+      <c r="G11" s="31" t="inlineStr"/>
+      <c r="H11" s="31" t="inlineStr"/>
+      <c r="I11" s="31" t="inlineStr"/>
+      <c r="J11" s="31" t="inlineStr"/>
+      <c r="K11" s="31" t="inlineStr"/>
+      <c r="L11" s="31" t="inlineStr"/>
+      <c r="M11" s="31" t="inlineStr"/>
+      <c r="N11" s="31" t="inlineStr"/>
+      <c r="O11" s="31" t="inlineStr"/>
+      <c r="P11" s="31" t="inlineStr"/>
+      <c r="Q11" s="31" t="inlineStr"/>
+      <c r="R11" s="31" t="inlineStr"/>
+      <c r="S11" s="31" t="inlineStr"/>
+      <c r="T11" s="31" t="inlineStr"/>
+      <c r="U11" s="31" t="inlineStr"/>
+      <c r="V11" s="31" t="inlineStr"/>
+      <c r="W11" s="31" t="inlineStr"/>
+      <c r="X11" s="31" t="inlineStr"/>
+      <c r="Y11" s="31" t="inlineStr"/>
+      <c r="Z11" s="31" t="inlineStr"/>
+      <c r="AA11" s="31" t="inlineStr"/>
+      <c r="AB11" s="31" t="inlineStr"/>
+      <c r="AC11" s="31" t="inlineStr"/>
       <c r="AD11" s="31" t="n">
         <v>0</v>
       </c>
@@ -3290,15 +3070,15 @@
         <v/>
       </c>
       <c r="CL11" s="34">
-        <f>COUNTIF($D12:$BS12,CL$5)</f>
+        <f>COUNTIF($D11:$BS11,CL$5)</f>
         <v/>
       </c>
       <c r="CM11" s="34">
-        <f>COUNTIF($D12:$BS12,CM$5)</f>
+        <f>COUNTIF($D11:$BS11,CM$5)</f>
         <v/>
       </c>
       <c r="CN11" s="34">
-        <f>COUNTIF($D12:$BS12,CN$5)</f>
+        <f>COUNTIF($D11:$BS11,CN$5)</f>
         <v/>
       </c>
       <c r="CO11" s="29" t="inlineStr">
@@ -3306,19 +3086,11 @@
           <t>ERIC SAFO</t>
         </is>
       </c>
-      <c r="CP11" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP11" s="29" t="inlineStr"/>
     </row>
     <row r="12" ht="24" customHeight="1" s="67">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B12" s="29" t="inlineStr"/>
       <c r="C12" s="29" t="inlineStr">
         <is>
           <t>Naufin Ashraf</t>
@@ -3330,12 +3102,8 @@
       <c r="E12" s="31" t="n">
         <v>7.25</v>
       </c>
-      <c r="F12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="31" t="inlineStr"/>
+      <c r="G12" s="31" t="inlineStr"/>
       <c r="H12" s="31" t="n">
         <v>0</v>
       </c>
@@ -3354,24 +3122,16 @@
       <c r="M12" s="31" t="n">
         <v>8.57</v>
       </c>
-      <c r="N12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N12" s="31" t="inlineStr"/>
+      <c r="O12" s="31" t="inlineStr"/>
       <c r="P12" s="31" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="31" t="n">
         <v>7.9</v>
       </c>
-      <c r="R12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R12" s="31" t="inlineStr"/>
+      <c r="S12" s="31" t="inlineStr"/>
       <c r="T12" s="31" t="n">
         <v>0</v>
       </c>
@@ -3390,12 +3150,8 @@
       <c r="Y12" s="31" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="Z12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z12" s="31" t="inlineStr"/>
+      <c r="AA12" s="31" t="inlineStr"/>
       <c r="AB12" s="31" t="n">
         <v>0</v>
       </c>
@@ -3521,15 +3277,15 @@
         <v/>
       </c>
       <c r="CL12" s="34">
-        <f>COUNTIF($D13:$BS13,CL$5)</f>
+        <f>COUNTIF($D12:$BS12,CL$5)</f>
         <v/>
       </c>
       <c r="CM12" s="34">
-        <f>COUNTIF($D13:$BS13,CM$5)</f>
+        <f>COUNTIF($D12:$BS12,CM$5)</f>
         <v/>
       </c>
       <c r="CN12" s="34">
-        <f>COUNTIF($D13:$BS13,CN$5)</f>
+        <f>COUNTIF($D12:$BS12,CN$5)</f>
         <v/>
       </c>
       <c r="CO12" s="29" t="inlineStr">
@@ -3537,19 +3293,11 @@
           <t>Naufin Ashraf</t>
         </is>
       </c>
-      <c r="CP12" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP12" s="29" t="inlineStr"/>
     </row>
     <row r="13" ht="24" customHeight="1" s="67">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B13" s="29" t="inlineStr"/>
       <c r="C13" s="29" t="inlineStr">
         <is>
           <t>Chisom Mgbodile</t>
@@ -3561,12 +3309,8 @@
       <c r="E13" s="31" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="F13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="31" t="inlineStr"/>
+      <c r="G13" s="31" t="inlineStr"/>
       <c r="H13" s="31" t="n">
         <v>0</v>
       </c>
@@ -3627,18 +3371,10 @@
       <c r="AA13" s="31" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AB13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB13" s="31" t="inlineStr"/>
+      <c r="AC13" s="31" t="inlineStr"/>
+      <c r="AD13" s="31" t="inlineStr"/>
+      <c r="AE13" s="31" t="inlineStr"/>
       <c r="AF13" s="31" t="n"/>
       <c r="AG13" s="31" t="n"/>
       <c r="AH13" s="31" t="n"/>
@@ -3752,15 +3488,15 @@
         <v/>
       </c>
       <c r="CL13" s="34">
-        <f>COUNTIF($D14:$BS14,CL$5)</f>
+        <f>COUNTIF($D13:$BS13,CL$5)</f>
         <v/>
       </c>
       <c r="CM13" s="34">
-        <f>COUNTIF($D14:$BS14,CM$5)</f>
+        <f>COUNTIF($D13:$BS13,CM$5)</f>
         <v/>
       </c>
       <c r="CN13" s="34">
-        <f>COUNTIF($D14:$BS14,CN$5)</f>
+        <f>COUNTIF($D13:$BS13,CN$5)</f>
         <v/>
       </c>
       <c r="CO13" s="29" t="inlineStr">
@@ -3768,19 +3504,11 @@
           <t>Chisom Mgbodile</t>
         </is>
       </c>
-      <c r="CP13" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP13" s="29" t="inlineStr"/>
     </row>
     <row r="14" ht="24" customHeight="1" s="67">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B14" s="29" t="inlineStr"/>
       <c r="C14" s="29" t="inlineStr">
         <is>
           <t>Francis Mgbodile</t>
@@ -3792,12 +3520,8 @@
       <c r="E14" s="31" t="n">
         <v>6.43</v>
       </c>
-      <c r="F14" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="31" t="inlineStr"/>
+      <c r="G14" s="31" t="inlineStr"/>
       <c r="H14" s="31" t="n">
         <v>0</v>
       </c>
@@ -3858,18 +3582,10 @@
       <c r="AA14" s="31" t="n">
         <v>7.37</v>
       </c>
-      <c r="AB14" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB14" s="31" t="inlineStr"/>
+      <c r="AC14" s="31" t="inlineStr"/>
+      <c r="AD14" s="31" t="inlineStr"/>
+      <c r="AE14" s="31" t="inlineStr"/>
       <c r="AF14" s="31" t="n"/>
       <c r="AG14" s="31" t="n"/>
       <c r="AH14" s="31" t="n"/>
@@ -3983,15 +3699,15 @@
         <v/>
       </c>
       <c r="CL14" s="34">
-        <f>COUNTIF($D15:$BS15,CL$5)</f>
+        <f>COUNTIF($D14:$BS14,CL$5)</f>
         <v/>
       </c>
       <c r="CM14" s="34">
-        <f>COUNTIF($D15:$BS15,CM$5)</f>
+        <f>COUNTIF($D14:$BS14,CM$5)</f>
         <v/>
       </c>
       <c r="CN14" s="34">
-        <f>COUNTIF($D15:$BS15,CN$5)</f>
+        <f>COUNTIF($D14:$BS14,CN$5)</f>
         <v/>
       </c>
       <c r="CO14" s="29" t="inlineStr">
@@ -3999,30 +3715,18 @@
           <t>Francis Mgbodile</t>
         </is>
       </c>
-      <c r="CP14" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP14" s="29" t="inlineStr"/>
     </row>
     <row r="15" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B15" s="29" t="inlineStr"/>
       <c r="C15" s="29" t="inlineStr">
         <is>
           <t>DIANA CANAS</t>
         </is>
       </c>
-      <c r="D15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D15" s="31" t="inlineStr"/>
+      <c r="E15" s="31" t="inlineStr"/>
       <c r="F15" s="31" t="n">
         <v>8</v>
       </c>
@@ -4053,18 +3757,10 @@
       <c r="O15" s="31" t="n">
         <v>12.22</v>
       </c>
-      <c r="P15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P15" s="31" t="inlineStr"/>
+      <c r="Q15" s="31" t="inlineStr"/>
+      <c r="R15" s="31" t="inlineStr"/>
+      <c r="S15" s="31" t="inlineStr"/>
       <c r="T15" s="31" t="n">
         <v>8</v>
       </c>
@@ -4095,12 +3791,8 @@
       <c r="AC15" s="31" t="n">
         <v>12.15</v>
       </c>
-      <c r="AD15" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD15" s="31" t="inlineStr"/>
+      <c r="AE15" s="31" t="inlineStr"/>
       <c r="AF15" s="31" t="n"/>
       <c r="AG15" s="31" t="n"/>
       <c r="AH15" s="31" t="n"/>
@@ -4214,15 +3906,15 @@
         <v/>
       </c>
       <c r="CL15" s="34">
-        <f>COUNTIF($D16:$BS16,CL$5)</f>
+        <f>COUNTIF($D15:$BS15,CL$5)</f>
         <v/>
       </c>
       <c r="CM15" s="34">
-        <f>COUNTIF($D16:$BS16,CM$5)</f>
+        <f>COUNTIF($D15:$BS15,CM$5)</f>
         <v/>
       </c>
       <c r="CN15" s="34">
-        <f>COUNTIF($D16:$BS16,CN$5)</f>
+        <f>COUNTIF($D15:$BS15,CN$5)</f>
         <v/>
       </c>
       <c r="CO15" s="29" t="inlineStr">
@@ -4230,30 +3922,18 @@
           <t>DIANA CANAS</t>
         </is>
       </c>
-      <c r="CP15" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP15" s="29" t="inlineStr"/>
     </row>
     <row r="16" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B16" s="29" t="inlineStr"/>
       <c r="C16" s="29" t="inlineStr">
         <is>
           <t>LEONARD KASSIS</t>
         </is>
       </c>
-      <c r="D16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D16" s="31" t="inlineStr"/>
+      <c r="E16" s="31" t="inlineStr"/>
       <c r="F16" s="31" t="n">
         <v>8.5</v>
       </c>
@@ -4284,20 +3964,14 @@
       <c r="O16" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="P16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="31" t="n">
-        <v>0</v>
+      <c r="P16" s="31" t="inlineStr"/>
+      <c r="Q16" s="31" t="inlineStr"/>
+      <c r="R16" s="31" t="inlineStr"/>
+      <c r="S16" s="31" t="inlineStr"/>
+      <c r="T16" s="31" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
       </c>
       <c r="U16" s="31" t="n">
         <v>8.25</v>
@@ -4320,18 +3994,16 @@
       <c r="AA16" s="31" t="n">
         <v>8.6</v>
       </c>
-      <c r="AB16" s="31" t="n">
-        <v>3.5</v>
+      <c r="AB16" s="31" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
       </c>
       <c r="AC16" s="31" t="n">
         <v>3.7</v>
       </c>
-      <c r="AD16" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD16" s="31" t="inlineStr"/>
+      <c r="AE16" s="31" t="inlineStr"/>
       <c r="AF16" s="31" t="n"/>
       <c r="AG16" s="31" t="n"/>
       <c r="AH16" s="31" t="n"/>
@@ -4445,15 +4117,15 @@
         <v/>
       </c>
       <c r="CL16" s="34">
-        <f>COUNTIF($D17:$BS17,CL$5)</f>
+        <f>COUNTIF($D16:$BS16,CL$5)</f>
         <v/>
       </c>
       <c r="CM16" s="34">
-        <f>COUNTIF($D17:$BS17,CM$5)</f>
+        <f>COUNTIF($D16:$BS16,CM$5)</f>
         <v/>
       </c>
       <c r="CN16" s="34">
-        <f>COUNTIF($D17:$BS17,CN$5)</f>
+        <f>COUNTIF($D16:$BS16,CN$5)</f>
         <v/>
       </c>
       <c r="CO16" s="29" t="inlineStr">
@@ -4461,30 +4133,18 @@
           <t>LEONARD KASSIS</t>
         </is>
       </c>
-      <c r="CP16" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP16" s="29" t="inlineStr"/>
     </row>
     <row r="17" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="35" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B17" s="35" t="inlineStr"/>
       <c r="C17" s="29" t="inlineStr">
         <is>
           <t>EDWARD CHAVEZ</t>
         </is>
       </c>
-      <c r="D17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" s="31" t="inlineStr"/>
+      <c r="E17" s="31" t="inlineStr"/>
       <c r="F17" s="31" t="n">
         <v>0</v>
       </c>
@@ -4515,18 +4175,10 @@
       <c r="O17" s="31" t="n">
         <v>7.37</v>
       </c>
-      <c r="P17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P17" s="31" t="inlineStr"/>
+      <c r="Q17" s="31" t="inlineStr"/>
+      <c r="R17" s="31" t="inlineStr"/>
+      <c r="S17" s="31" t="inlineStr"/>
       <c r="T17" s="31" t="n">
         <v>0</v>
       </c>
@@ -4557,12 +4209,8 @@
       <c r="AC17" s="31" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD17" s="31" t="inlineStr"/>
+      <c r="AE17" s="31" t="inlineStr"/>
       <c r="AF17" s="31" t="n"/>
       <c r="AG17" s="31" t="n"/>
       <c r="AH17" s="31" t="n"/>
@@ -4676,15 +4324,15 @@
         <v/>
       </c>
       <c r="CL17" s="34">
-        <f>COUNTIF($D18:$BS18,CL$5)</f>
+        <f>COUNTIF($D17:$BS17,CL$5)</f>
         <v/>
       </c>
       <c r="CM17" s="34">
-        <f>COUNTIF($D18:$BS18,CM$5)</f>
+        <f>COUNTIF($D17:$BS17,CM$5)</f>
         <v/>
       </c>
       <c r="CN17" s="34">
-        <f>COUNTIF($D18:$BS18,CN$5)</f>
+        <f>COUNTIF($D17:$BS17,CN$5)</f>
         <v/>
       </c>
       <c r="CO17" s="29" t="inlineStr">
@@ -4692,30 +4340,18 @@
           <t>EDWARD CHAVEZ</t>
         </is>
       </c>
-      <c r="CP17" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP17" s="29" t="inlineStr"/>
     </row>
     <row r="18" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B18" s="29" t="inlineStr"/>
       <c r="C18" s="29" t="inlineStr">
         <is>
           <t>SONIA GARCIA</t>
         </is>
       </c>
-      <c r="D18" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D18" s="31" t="inlineStr"/>
+      <c r="E18" s="31" t="inlineStr"/>
       <c r="F18" s="31" t="n">
         <v>8.75</v>
       </c>
@@ -4746,18 +4382,10 @@
       <c r="O18" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="P18" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P18" s="31" t="inlineStr"/>
+      <c r="Q18" s="31" t="inlineStr"/>
+      <c r="R18" s="31" t="inlineStr"/>
+      <c r="S18" s="31" t="inlineStr"/>
       <c r="T18" s="31" t="n">
         <v>8.75</v>
       </c>
@@ -4788,12 +4416,8 @@
       <c r="AC18" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD18" s="31" t="inlineStr"/>
+      <c r="AE18" s="31" t="inlineStr"/>
       <c r="AF18" s="31" t="n"/>
       <c r="AG18" s="31" t="n"/>
       <c r="AH18" s="31" t="n"/>
@@ -4907,15 +4531,15 @@
         <v/>
       </c>
       <c r="CL18" s="34">
-        <f>COUNTIF($D19:$BS19,CL$5)</f>
+        <f>COUNTIF($D18:$BS18,CL$5)</f>
         <v/>
       </c>
       <c r="CM18" s="34">
-        <f>COUNTIF($D19:$BS19,CM$5)</f>
+        <f>COUNTIF($D18:$BS18,CM$5)</f>
         <v/>
       </c>
       <c r="CN18" s="34">
-        <f>COUNTIF($D19:$BS19,CN$5)</f>
+        <f>COUNTIF($D18:$BS18,CN$5)</f>
         <v/>
       </c>
       <c r="CO18" s="29" t="inlineStr">
@@ -4923,30 +4547,18 @@
           <t>SONIA GARCIA</t>
         </is>
       </c>
-      <c r="CP18" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP18" s="29" t="inlineStr"/>
     </row>
     <row r="19" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B19" s="29" t="inlineStr"/>
       <c r="C19" s="29" t="inlineStr">
         <is>
           <t>LAURYN CRAWLEY</t>
         </is>
       </c>
-      <c r="D19" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D19" s="31" t="inlineStr"/>
+      <c r="E19" s="31" t="inlineStr"/>
       <c r="F19" s="31" t="n">
         <v>0</v>
       </c>
@@ -4959,12 +4571,8 @@
       <c r="I19" s="31" t="n">
         <v>5.93</v>
       </c>
-      <c r="J19" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" s="31" t="inlineStr"/>
+      <c r="K19" s="31" t="inlineStr"/>
       <c r="L19" s="31" t="n">
         <v>0</v>
       </c>
@@ -4977,18 +4585,10 @@
       <c r="O19" s="31" t="n">
         <v>3.52</v>
       </c>
-      <c r="P19" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P19" s="31" t="inlineStr"/>
+      <c r="Q19" s="31" t="inlineStr"/>
+      <c r="R19" s="31" t="inlineStr"/>
+      <c r="S19" s="31" t="inlineStr"/>
       <c r="T19" s="31" t="n">
         <v>0</v>
       </c>
@@ -5019,12 +4619,8 @@
       <c r="AC19" s="31" t="n">
         <v>2.6</v>
       </c>
-      <c r="AD19" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD19" s="31" t="inlineStr"/>
+      <c r="AE19" s="31" t="inlineStr"/>
       <c r="AF19" s="31" t="n"/>
       <c r="AG19" s="31" t="n"/>
       <c r="AH19" s="31" t="n"/>
@@ -5138,15 +4734,15 @@
         <v/>
       </c>
       <c r="CL19" s="34">
-        <f>COUNTIF($D20:$BS20,CL$5)</f>
+        <f>COUNTIF($D19:$BS19,CL$5)</f>
         <v/>
       </c>
       <c r="CM19" s="34">
-        <f>COUNTIF($D20:$BS20,CM$5)</f>
+        <f>COUNTIF($D19:$BS19,CM$5)</f>
         <v/>
       </c>
       <c r="CN19" s="34">
-        <f>COUNTIF($D20:$BS20,CN$5)</f>
+        <f>COUNTIF($D19:$BS19,CN$5)</f>
         <v/>
       </c>
       <c r="CO19" s="29" t="inlineStr">
@@ -5154,30 +4750,18 @@
           <t>LAURYN CRAWLEY</t>
         </is>
       </c>
-      <c r="CP19" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP19" s="29" t="inlineStr"/>
     </row>
     <row r="20" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B20" s="29" t="inlineStr"/>
       <c r="C20" s="29" t="inlineStr">
         <is>
           <t>KAREN JIMENEZ</t>
         </is>
       </c>
-      <c r="D20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D20" s="31" t="inlineStr"/>
+      <c r="E20" s="31" t="inlineStr"/>
       <c r="F20" s="31" t="n">
         <v>10</v>
       </c>
@@ -5202,24 +4786,12 @@
       <c r="M20" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="N20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N20" s="31" t="inlineStr"/>
+      <c r="O20" s="31" t="inlineStr"/>
+      <c r="P20" s="31" t="inlineStr"/>
+      <c r="Q20" s="31" t="inlineStr"/>
+      <c r="R20" s="31" t="inlineStr"/>
+      <c r="S20" s="31" t="inlineStr"/>
       <c r="T20" s="31" t="n">
         <v>10</v>
       </c>
@@ -5244,12 +4816,8 @@
       <c r="AA20" s="31" t="n">
         <v>9.4</v>
       </c>
-      <c r="AB20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB20" s="31" t="inlineStr"/>
+      <c r="AC20" s="31" t="inlineStr"/>
       <c r="AD20" s="31" t="n">
         <v>6</v>
       </c>
@@ -5369,15 +4937,15 @@
         <v/>
       </c>
       <c r="CL20" s="34">
-        <f>COUNTIF($D21:$BS21,CL$5)</f>
+        <f>COUNTIF($D20:$BS20,CL$5)</f>
         <v/>
       </c>
       <c r="CM20" s="34">
-        <f>COUNTIF($D21:$BS21,CM$5)</f>
+        <f>COUNTIF($D20:$BS20,CM$5)</f>
         <v/>
       </c>
       <c r="CN20" s="34">
-        <f>COUNTIF($D21:$BS21,CN$5)</f>
+        <f>COUNTIF($D20:$BS20,CN$5)</f>
         <v/>
       </c>
       <c r="CO20" s="29" t="inlineStr">
@@ -5385,30 +4953,18 @@
           <t>KAREN JIMENEZ</t>
         </is>
       </c>
-      <c r="CP20" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP20" s="29" t="inlineStr"/>
     </row>
     <row r="21" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B21" s="29" t="inlineStr"/>
       <c r="C21" s="29" t="inlineStr">
         <is>
           <t>NEHALI PATEL</t>
         </is>
       </c>
-      <c r="D21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D21" s="31" t="inlineStr"/>
+      <c r="E21" s="31" t="inlineStr"/>
       <c r="F21" s="31" t="n">
         <v>9.5</v>
       </c>
@@ -5433,24 +4989,16 @@
       <c r="M21" s="31" t="n">
         <v>11.48</v>
       </c>
-      <c r="N21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N21" s="31" t="inlineStr">
+        <is>
+          <t>UL</t>
+        </is>
+      </c>
+      <c r="O21" s="31" t="inlineStr"/>
+      <c r="P21" s="31" t="inlineStr"/>
+      <c r="Q21" s="31" t="inlineStr"/>
+      <c r="R21" s="31" t="inlineStr"/>
+      <c r="S21" s="31" t="inlineStr"/>
       <c r="T21" s="31" t="n">
         <v>9.5</v>
       </c>
@@ -5481,12 +5029,8 @@
       <c r="AC21" s="31" t="n">
         <v>5.75</v>
       </c>
-      <c r="AD21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD21" s="31" t="inlineStr"/>
+      <c r="AE21" s="31" t="inlineStr"/>
       <c r="AF21" s="31" t="n"/>
       <c r="AG21" s="31" t="n"/>
       <c r="AH21" s="31" t="n"/>
@@ -5600,15 +5144,15 @@
         <v/>
       </c>
       <c r="CL21" s="34">
-        <f>COUNTIF($D22:$BS22,CL$5)</f>
+        <f>COUNTIF($D21:$BS21,CL$5)</f>
         <v/>
       </c>
       <c r="CM21" s="34">
-        <f>COUNTIF($D22:$BS22,CM$5)</f>
+        <f>COUNTIF($D21:$BS21,CM$5)</f>
         <v/>
       </c>
       <c r="CN21" s="34">
-        <f>COUNTIF($D22:$BS22,CN$5)</f>
+        <f>COUNTIF($D21:$BS21,CN$5)</f>
         <v/>
       </c>
       <c r="CO21" s="29" t="inlineStr">
@@ -5616,30 +5160,18 @@
           <t>NEHALI PATEL</t>
         </is>
       </c>
-      <c r="CP21" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP21" s="29" t="inlineStr"/>
     </row>
     <row r="22" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B22" s="29" t="inlineStr"/>
       <c r="C22" s="29" t="inlineStr">
         <is>
           <t>MELANIE QUEZADA LOPEZ</t>
         </is>
       </c>
-      <c r="D22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D22" s="31" t="inlineStr"/>
+      <c r="E22" s="31" t="inlineStr"/>
       <c r="F22" s="31" t="n">
         <v>8.75</v>
       </c>
@@ -5670,18 +5202,10 @@
       <c r="O22" s="31" t="n">
         <v>7.97</v>
       </c>
-      <c r="P22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P22" s="31" t="inlineStr"/>
+      <c r="Q22" s="31" t="inlineStr"/>
+      <c r="R22" s="31" t="inlineStr"/>
+      <c r="S22" s="31" t="inlineStr"/>
       <c r="T22" s="31" t="n">
         <v>8.75</v>
       </c>
@@ -5712,12 +5236,8 @@
       <c r="AC22" s="31" t="n">
         <v>7.82</v>
       </c>
-      <c r="AD22" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD22" s="31" t="inlineStr"/>
+      <c r="AE22" s="31" t="inlineStr"/>
       <c r="AF22" s="31" t="n"/>
       <c r="AG22" s="31" t="n"/>
       <c r="AH22" s="31" t="n"/>
@@ -5831,15 +5351,15 @@
         <v/>
       </c>
       <c r="CL22" s="34">
-        <f>COUNTIF($D23:$BS23,CL$5)</f>
+        <f>COUNTIF($D22:$BS22,CL$5)</f>
         <v/>
       </c>
       <c r="CM22" s="34">
-        <f>COUNTIF($D23:$BS23,CM$5)</f>
+        <f>COUNTIF($D22:$BS22,CM$5)</f>
         <v/>
       </c>
       <c r="CN22" s="34">
-        <f>COUNTIF($D23:$BS23,CN$5)</f>
+        <f>COUNTIF($D22:$BS22,CN$5)</f>
         <v/>
       </c>
       <c r="CO22" s="29" t="inlineStr">
@@ -5847,30 +5367,18 @@
           <t>MELANIE QUEZADA LOPEZ</t>
         </is>
       </c>
-      <c r="CP22" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP22" s="29" t="inlineStr"/>
     </row>
     <row r="23" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B23" s="29" t="inlineStr"/>
       <c r="C23" s="29" t="inlineStr">
         <is>
           <t>MANBIR TAKHAR</t>
         </is>
       </c>
-      <c r="D23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D23" s="31" t="inlineStr"/>
+      <c r="E23" s="31" t="inlineStr"/>
       <c r="F23" s="31" t="n">
         <v>8</v>
       </c>
@@ -5883,36 +5391,20 @@
       <c r="I23" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" s="31" t="inlineStr"/>
+      <c r="K23" s="31" t="inlineStr"/>
       <c r="L23" s="31" t="n">
         <v>8</v>
       </c>
       <c r="M23" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="N23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N23" s="31" t="inlineStr"/>
+      <c r="O23" s="31" t="inlineStr"/>
+      <c r="P23" s="31" t="inlineStr"/>
+      <c r="Q23" s="31" t="inlineStr"/>
+      <c r="R23" s="31" t="inlineStr"/>
+      <c r="S23" s="31" t="inlineStr"/>
       <c r="T23" s="31" t="n">
         <v>8</v>
       </c>
@@ -5925,30 +5417,18 @@
       <c r="W23" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="X23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="X23" s="31" t="inlineStr"/>
+      <c r="Y23" s="31" t="inlineStr"/>
       <c r="Z23" s="31" t="n">
         <v>8</v>
       </c>
       <c r="AA23" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="AB23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB23" s="31" t="inlineStr"/>
+      <c r="AC23" s="31" t="inlineStr"/>
+      <c r="AD23" s="31" t="inlineStr"/>
+      <c r="AE23" s="31" t="inlineStr"/>
       <c r="AF23" s="31" t="n"/>
       <c r="AG23" s="31" t="n"/>
       <c r="AH23" s="31" t="n"/>
@@ -6062,15 +5542,15 @@
         <v/>
       </c>
       <c r="CL23" s="34">
-        <f>COUNTIF($D24:$BS24,CL$5)</f>
+        <f>COUNTIF($D23:$BS23,CL$5)</f>
         <v/>
       </c>
       <c r="CM23" s="34">
-        <f>COUNTIF($D24:$BS24,CM$5)</f>
+        <f>COUNTIF($D23:$BS23,CM$5)</f>
         <v/>
       </c>
       <c r="CN23" s="34">
-        <f>COUNTIF($D24:$BS24,CN$5)</f>
+        <f>COUNTIF($D23:$BS23,CN$5)</f>
         <v/>
       </c>
       <c r="CO23" s="29" t="inlineStr">
@@ -6078,30 +5558,18 @@
           <t>MANBIR TAKHAR</t>
         </is>
       </c>
-      <c r="CP23" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP23" s="29" t="inlineStr"/>
     </row>
     <row r="24" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B24" s="29" t="inlineStr"/>
       <c r="C24" s="29" t="inlineStr">
         <is>
           <t>NISHTHA SANGHANI</t>
         </is>
       </c>
-      <c r="D24" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D24" s="31" t="inlineStr"/>
+      <c r="E24" s="31" t="inlineStr"/>
       <c r="F24" s="31" t="n">
         <v>6</v>
       </c>
@@ -6138,12 +5606,8 @@
       <c r="Q24" s="31" t="n">
         <v>2.92</v>
       </c>
-      <c r="R24" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R24" s="31" t="inlineStr"/>
+      <c r="S24" s="31" t="inlineStr"/>
       <c r="T24" s="31" t="n">
         <v>6</v>
       </c>
@@ -6156,12 +5620,8 @@
       <c r="W24" s="31" t="n">
         <v>9.73</v>
       </c>
-      <c r="X24" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="X24" s="31" t="inlineStr"/>
+      <c r="Y24" s="31" t="inlineStr"/>
       <c r="Z24" s="31" t="n">
         <v>6</v>
       </c>
@@ -6293,15 +5753,15 @@
         <v/>
       </c>
       <c r="CL24" s="34">
-        <f>COUNTIF($D25:$BS25,CL$5)</f>
+        <f>COUNTIF($D24:$BS24,CL$5)</f>
         <v/>
       </c>
       <c r="CM24" s="34">
-        <f>COUNTIF($D25:$BS25,CM$5)</f>
+        <f>COUNTIF($D24:$BS24,CM$5)</f>
         <v/>
       </c>
       <c r="CN24" s="34">
-        <f>COUNTIF($D25:$BS25,CN$5)</f>
+        <f>COUNTIF($D24:$BS24,CN$5)</f>
         <v/>
       </c>
       <c r="CO24" s="29" t="inlineStr">
@@ -6309,30 +5769,18 @@
           <t>NISHTHA SANGHANI</t>
         </is>
       </c>
-      <c r="CP24" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP24" s="29" t="inlineStr"/>
     </row>
     <row r="25" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B25" s="29" t="inlineStr"/>
       <c r="C25" s="29" t="inlineStr">
         <is>
           <t>LILIANA HENRIQUEZ</t>
         </is>
       </c>
-      <c r="D25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D25" s="31" t="inlineStr"/>
+      <c r="E25" s="31" t="inlineStr"/>
       <c r="F25" s="31" t="n">
         <v>8.75</v>
       </c>
@@ -6363,18 +5811,10 @@
       <c r="O25" s="31" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="P25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P25" s="31" t="inlineStr"/>
+      <c r="Q25" s="31" t="inlineStr"/>
+      <c r="R25" s="31" t="inlineStr"/>
+      <c r="S25" s="31" t="inlineStr"/>
       <c r="T25" s="31" t="n">
         <v>8.75</v>
       </c>
@@ -6405,12 +5845,8 @@
       <c r="AC25" s="31" t="n">
         <v>9.42</v>
       </c>
-      <c r="AD25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD25" s="31" t="inlineStr"/>
+      <c r="AE25" s="31" t="inlineStr"/>
       <c r="AF25" s="31" t="n"/>
       <c r="AG25" s="31" t="n"/>
       <c r="AH25" s="31" t="n"/>
@@ -6524,15 +5960,15 @@
         <v/>
       </c>
       <c r="CL25" s="34">
-        <f>COUNTIF($D26:$BS26,CL$5)</f>
+        <f>COUNTIF($D25:$BS25,CL$5)</f>
         <v/>
       </c>
       <c r="CM25" s="34">
-        <f>COUNTIF($D26:$BS26,CM$5)</f>
+        <f>COUNTIF($D25:$BS25,CM$5)</f>
         <v/>
       </c>
       <c r="CN25" s="34">
-        <f>COUNTIF($D26:$BS26,CN$5)</f>
+        <f>COUNTIF($D25:$BS25,CN$5)</f>
         <v/>
       </c>
       <c r="CO25" s="29" t="inlineStr">
@@ -6540,42 +5976,26 @@
           <t>LILIANA HENRIQUEZ</t>
         </is>
       </c>
-      <c r="CP25" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP25" s="29" t="inlineStr"/>
     </row>
     <row r="26" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B26" s="29" t="inlineStr"/>
       <c r="C26" s="29" t="inlineStr">
         <is>
           <t>RONALD DESIR</t>
         </is>
       </c>
-      <c r="D26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D26" s="31" t="inlineStr"/>
+      <c r="E26" s="31" t="inlineStr"/>
       <c r="F26" s="31" t="n">
         <v>3</v>
       </c>
       <c r="G26" s="31" t="n">
         <v>3.38</v>
       </c>
-      <c r="H26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="H26" s="31" t="inlineStr"/>
+      <c r="I26" s="31" t="inlineStr"/>
       <c r="J26" s="31" t="n">
         <v>3</v>
       </c>
@@ -6588,36 +6008,24 @@
       <c r="M26" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="N26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N26" s="31" t="inlineStr"/>
+      <c r="O26" s="31" t="inlineStr"/>
       <c r="P26" s="31" t="n">
         <v>8</v>
       </c>
       <c r="Q26" s="31" t="n">
         <v>8.35</v>
       </c>
-      <c r="R26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R26" s="31" t="inlineStr"/>
+      <c r="S26" s="31" t="inlineStr"/>
       <c r="T26" s="31" t="n">
         <v>3</v>
       </c>
       <c r="U26" s="31" t="n">
         <v>3.47</v>
       </c>
-      <c r="V26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="V26" s="31" t="inlineStr"/>
+      <c r="W26" s="31" t="inlineStr"/>
       <c r="X26" s="31" t="n">
         <v>3</v>
       </c>
@@ -6630,18 +6038,10 @@
       <c r="AA26" s="31" t="n">
         <v>3.17</v>
       </c>
-      <c r="AB26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB26" s="31" t="inlineStr"/>
+      <c r="AC26" s="31" t="inlineStr"/>
+      <c r="AD26" s="31" t="inlineStr"/>
+      <c r="AE26" s="31" t="inlineStr"/>
       <c r="AF26" s="31" t="n"/>
       <c r="AG26" s="31" t="n"/>
       <c r="AH26" s="31" t="n"/>
@@ -6755,15 +6155,15 @@
         <v/>
       </c>
       <c r="CL26" s="34">
-        <f>COUNTIF($D27:$BS27,CL$5)</f>
+        <f>COUNTIF($D26:$BS26,CL$5)</f>
         <v/>
       </c>
       <c r="CM26" s="34">
-        <f>COUNTIF($D27:$BS27,CM$5)</f>
+        <f>COUNTIF($D26:$BS26,CM$5)</f>
         <v/>
       </c>
       <c r="CN26" s="34">
-        <f>COUNTIF($D27:$BS27,CN$5)</f>
+        <f>COUNTIF($D26:$BS26,CN$5)</f>
         <v/>
       </c>
       <c r="CO26" s="29" t="inlineStr">
@@ -6771,30 +6171,18 @@
           <t>RONALD DESIR</t>
         </is>
       </c>
-      <c r="CP26" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP26" s="29" t="inlineStr"/>
     </row>
     <row r="27" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B27" s="29" t="inlineStr"/>
       <c r="C27" s="29" t="inlineStr">
         <is>
           <t>CLAUDIA CANAS</t>
         </is>
       </c>
-      <c r="D27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D27" s="31" t="inlineStr"/>
+      <c r="E27" s="31" t="inlineStr"/>
       <c r="F27" s="31" t="n">
         <v>6</v>
       </c>
@@ -6807,12 +6195,8 @@
       <c r="I27" s="31" t="n">
         <v>5.15</v>
       </c>
-      <c r="J27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" s="31" t="inlineStr"/>
+      <c r="K27" s="31" t="inlineStr"/>
       <c r="L27" s="31" t="n">
         <v>6</v>
       </c>
@@ -6825,18 +6209,10 @@
       <c r="O27" s="31" t="n">
         <v>5.12</v>
       </c>
-      <c r="P27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P27" s="31" t="inlineStr"/>
+      <c r="Q27" s="31" t="inlineStr"/>
+      <c r="R27" s="31" t="inlineStr"/>
+      <c r="S27" s="31" t="inlineStr"/>
       <c r="T27" s="31" t="n">
         <v>6</v>
       </c>
@@ -6849,12 +6225,8 @@
       <c r="W27" s="31" t="n">
         <v>5.45</v>
       </c>
-      <c r="X27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="X27" s="31" t="inlineStr"/>
+      <c r="Y27" s="31" t="inlineStr"/>
       <c r="Z27" s="31" t="n">
         <v>6</v>
       </c>
@@ -6867,12 +6239,8 @@
       <c r="AC27" s="31" t="n">
         <v>5.05</v>
       </c>
-      <c r="AD27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD27" s="31" t="inlineStr"/>
+      <c r="AE27" s="31" t="inlineStr"/>
       <c r="AF27" s="31" t="n"/>
       <c r="AG27" s="31" t="n"/>
       <c r="AH27" s="31" t="n"/>
@@ -6986,15 +6354,15 @@
         <v/>
       </c>
       <c r="CL27" s="34">
-        <f>COUNTIF($D28:$BS28,CL$5)</f>
+        <f>COUNTIF($D27:$BS27,CL$5)</f>
         <v/>
       </c>
       <c r="CM27" s="34">
-        <f>COUNTIF($D28:$BS28,CM$5)</f>
+        <f>COUNTIF($D27:$BS27,CM$5)</f>
         <v/>
       </c>
       <c r="CN27" s="34">
-        <f>COUNTIF($D28:$BS28,CN$5)</f>
+        <f>COUNTIF($D27:$BS27,CN$5)</f>
         <v/>
       </c>
       <c r="CO27" s="29" t="inlineStr">
@@ -7002,30 +6370,18 @@
           <t>CLAUDIA CANAS</t>
         </is>
       </c>
-      <c r="CP27" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP27" s="29" t="inlineStr"/>
     </row>
     <row r="28" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B28" s="29" t="inlineStr"/>
       <c r="C28" s="29" t="inlineStr">
         <is>
           <t>YOADAN ZEWDU</t>
         </is>
       </c>
-      <c r="D28" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D28" s="31" t="inlineStr"/>
+      <c r="E28" s="31" t="inlineStr"/>
       <c r="F28" s="31" t="n">
         <v>9.25</v>
       </c>
@@ -7062,12 +6418,8 @@
       <c r="Q28" s="31" t="n">
         <v>8.279999999999999</v>
       </c>
-      <c r="R28" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R28" s="31" t="inlineStr"/>
+      <c r="S28" s="31" t="inlineStr"/>
       <c r="T28" s="31" t="n">
         <v>9.25</v>
       </c>
@@ -7098,12 +6450,8 @@
       <c r="AC28" s="31" t="n">
         <v>4.87</v>
       </c>
-      <c r="AD28" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD28" s="31" t="inlineStr"/>
+      <c r="AE28" s="31" t="inlineStr"/>
       <c r="AF28" s="31" t="n"/>
       <c r="AG28" s="31" t="n"/>
       <c r="AH28" s="31" t="n"/>
@@ -7217,15 +6565,15 @@
         <v/>
       </c>
       <c r="CL28" s="34">
-        <f>COUNTIF($D29:$BS29,CL$5)</f>
+        <f>COUNTIF($D28:$BS28,CL$5)</f>
         <v/>
       </c>
       <c r="CM28" s="34">
-        <f>COUNTIF($D29:$BS29,CM$5)</f>
+        <f>COUNTIF($D28:$BS28,CM$5)</f>
         <v/>
       </c>
       <c r="CN28" s="34">
-        <f>COUNTIF($D29:$BS29,CN$5)</f>
+        <f>COUNTIF($D28:$BS28,CN$5)</f>
         <v/>
       </c>
       <c r="CO28" s="29" t="inlineStr">
@@ -7233,96 +6581,56 @@
           <t>YOADAN ZEWDU</t>
         </is>
       </c>
-      <c r="CP28" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP28" s="29" t="inlineStr"/>
     </row>
     <row r="29" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B29" s="29" t="inlineStr"/>
       <c r="C29" s="29" t="inlineStr">
         <is>
           <t>Grace Garbo</t>
         </is>
       </c>
-      <c r="D29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D29" s="31" t="inlineStr"/>
+      <c r="E29" s="31" t="inlineStr"/>
       <c r="F29" s="31" t="n">
         <v>4</v>
       </c>
       <c r="G29" s="31" t="n">
         <v>4.53</v>
       </c>
-      <c r="H29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="H29" s="31" t="inlineStr"/>
+      <c r="I29" s="31" t="inlineStr"/>
+      <c r="J29" s="31" t="inlineStr"/>
+      <c r="K29" s="31" t="inlineStr"/>
+      <c r="L29" s="31" t="inlineStr"/>
+      <c r="M29" s="31" t="inlineStr"/>
       <c r="N29" s="31" t="n">
         <v>8.5</v>
       </c>
       <c r="O29" s="31" t="n">
         <v>4.85</v>
       </c>
-      <c r="P29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P29" s="31" t="inlineStr"/>
+      <c r="Q29" s="31" t="inlineStr"/>
+      <c r="R29" s="31" t="inlineStr"/>
+      <c r="S29" s="31" t="inlineStr"/>
       <c r="T29" s="31" t="n">
         <v>4</v>
       </c>
       <c r="U29" s="31" t="n">
         <v>6.27</v>
       </c>
-      <c r="V29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="V29" s="31" t="inlineStr">
+        <is>
+          <t>UL</t>
+        </is>
+      </c>
+      <c r="W29" s="31" t="inlineStr"/>
+      <c r="X29" s="31" t="inlineStr"/>
+      <c r="Y29" s="31" t="inlineStr"/>
+      <c r="Z29" s="31" t="inlineStr"/>
+      <c r="AA29" s="31" t="inlineStr"/>
       <c r="AB29" s="31" t="n">
         <v>8.5</v>
       </c>
@@ -7448,15 +6756,15 @@
         <v/>
       </c>
       <c r="CL29" s="34">
-        <f>COUNTIF($D30:$BS30,CL$5)</f>
+        <f>COUNTIF($D29:$BS29,CL$5)</f>
         <v/>
       </c>
       <c r="CM29" s="34">
-        <f>COUNTIF($D30:$BS30,CM$5)</f>
+        <f>COUNTIF($D29:$BS29,CM$5)</f>
         <v/>
       </c>
       <c r="CN29" s="34">
-        <f>COUNTIF($D30:$BS30,CN$5)</f>
+        <f>COUNTIF($D29:$BS29,CN$5)</f>
         <v/>
       </c>
       <c r="CO29" s="29" t="inlineStr">
@@ -7464,30 +6772,22 @@
           <t>Grace Garbo</t>
         </is>
       </c>
-      <c r="CP29" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP29" s="29" t="inlineStr"/>
     </row>
     <row r="30" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B30" s="29" t="inlineStr"/>
       <c r="C30" s="29" t="inlineStr">
         <is>
           <t>Regine Salmon</t>
         </is>
       </c>
-      <c r="D30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D30" s="31" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
+      </c>
+      <c r="E30" s="31" t="inlineStr"/>
       <c r="F30" s="31" t="n">
         <v>12</v>
       </c>
@@ -7512,24 +6812,16 @@
       <c r="M30" s="31" t="n">
         <v>8.43</v>
       </c>
-      <c r="N30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N30" s="31" t="inlineStr"/>
+      <c r="O30" s="31" t="inlineStr"/>
       <c r="P30" s="31" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="31" t="n">
         <v>1.98</v>
       </c>
-      <c r="R30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R30" s="31" t="inlineStr"/>
+      <c r="S30" s="31" t="inlineStr"/>
       <c r="T30" s="31" t="n">
         <v>12</v>
       </c>
@@ -7548,24 +6840,18 @@
       <c r="Y30" s="31" t="n">
         <v>11.58</v>
       </c>
-      <c r="Z30" s="31" t="n">
-        <v>0</v>
+      <c r="Z30" s="31" t="inlineStr">
+        <is>
+          <t>PTO</t>
+        </is>
       </c>
       <c r="AA30" s="31" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="AB30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB30" s="31" t="inlineStr"/>
+      <c r="AC30" s="31" t="inlineStr"/>
+      <c r="AD30" s="31" t="inlineStr"/>
+      <c r="AE30" s="31" t="inlineStr"/>
       <c r="AF30" s="31" t="n"/>
       <c r="AG30" s="31" t="n"/>
       <c r="AH30" s="31" t="n"/>
@@ -7679,15 +6965,15 @@
         <v/>
       </c>
       <c r="CL30" s="34">
-        <f>COUNTIF($D31:$BS31,CL$5)</f>
+        <f>COUNTIF($D30:$BS30,CL$5)</f>
         <v/>
       </c>
       <c r="CM30" s="34">
-        <f>COUNTIF($D31:$BS31,CM$5)</f>
+        <f>COUNTIF($D30:$BS30,CM$5)</f>
         <v/>
       </c>
       <c r="CN30" s="34">
-        <f>COUNTIF($D31:$BS31,CN$5)</f>
+        <f>COUNTIF($D30:$BS30,CN$5)</f>
         <v/>
       </c>
       <c r="CO30" s="29" t="inlineStr">
@@ -7695,30 +6981,18 @@
           <t>Regine Salmon</t>
         </is>
       </c>
-      <c r="CP30" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP30" s="29" t="inlineStr"/>
     </row>
     <row r="31" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B31" s="29" t="inlineStr"/>
       <c r="C31" s="29" t="inlineStr">
         <is>
           <t>Keanna Wood</t>
         </is>
       </c>
-      <c r="D31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D31" s="31" t="inlineStr"/>
+      <c r="E31" s="31" t="inlineStr"/>
       <c r="F31" s="31" t="n">
         <v>8.5</v>
       </c>
@@ -7749,18 +7023,10 @@
       <c r="O31" s="31" t="n">
         <v>8.08</v>
       </c>
-      <c r="P31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P31" s="31" t="inlineStr"/>
+      <c r="Q31" s="31" t="inlineStr"/>
+      <c r="R31" s="31" t="inlineStr"/>
+      <c r="S31" s="31" t="inlineStr"/>
       <c r="T31" s="31" t="n">
         <v>8.5</v>
       </c>
@@ -7791,12 +7057,8 @@
       <c r="AC31" s="31" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="AD31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD31" s="31" t="inlineStr"/>
+      <c r="AE31" s="31" t="inlineStr"/>
       <c r="AF31" s="31" t="n"/>
       <c r="AG31" s="31" t="n"/>
       <c r="AH31" s="31" t="n"/>
@@ -7910,15 +7172,15 @@
         <v/>
       </c>
       <c r="CL31" s="34">
-        <f>COUNTIF($D32:$BS32,CL$5)</f>
+        <f>COUNTIF($D31:$BS31,CL$5)</f>
         <v/>
       </c>
       <c r="CM31" s="34">
-        <f>COUNTIF($D32:$BS32,CM$5)</f>
+        <f>COUNTIF($D31:$BS31,CM$5)</f>
         <v/>
       </c>
       <c r="CN31" s="34">
-        <f>COUNTIF($D32:$BS32,CN$5)</f>
+        <f>COUNTIF($D31:$BS31,CN$5)</f>
         <v/>
       </c>
       <c r="CO31" s="29" t="inlineStr">
@@ -7926,30 +7188,18 @@
           <t>Keanna Wood</t>
         </is>
       </c>
-      <c r="CP31" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP31" s="29" t="inlineStr"/>
     </row>
     <row r="32" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B32" s="29" t="inlineStr"/>
       <c r="C32" s="29" t="inlineStr">
         <is>
           <t>Brendaline Nettey</t>
         </is>
       </c>
-      <c r="D32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D32" s="31" t="inlineStr"/>
+      <c r="E32" s="31" t="inlineStr"/>
       <c r="F32" s="31" t="n">
         <v>0</v>
       </c>
@@ -7980,18 +7230,10 @@
       <c r="O32" s="31" t="n">
         <v>5.77</v>
       </c>
-      <c r="P32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P32" s="31" t="inlineStr"/>
+      <c r="Q32" s="31" t="inlineStr"/>
+      <c r="R32" s="31" t="inlineStr"/>
+      <c r="S32" s="31" t="inlineStr"/>
       <c r="T32" s="31" t="n">
         <v>0</v>
       </c>
@@ -8022,12 +7264,8 @@
       <c r="AC32" s="31" t="n">
         <v>5.32</v>
       </c>
-      <c r="AD32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD32" s="31" t="inlineStr"/>
+      <c r="AE32" s="31" t="inlineStr"/>
       <c r="AF32" s="31" t="n"/>
       <c r="AG32" s="31" t="n"/>
       <c r="AH32" s="31" t="n"/>
@@ -8141,15 +7379,15 @@
         <v/>
       </c>
       <c r="CL32" s="34">
-        <f>COUNTIF($D33:$BS33,CL$5)</f>
+        <f>COUNTIF($D32:$BS32,CL$5)</f>
         <v/>
       </c>
       <c r="CM32" s="34">
-        <f>COUNTIF($D33:$BS33,CM$5)</f>
+        <f>COUNTIF($D32:$BS32,CM$5)</f>
         <v/>
       </c>
       <c r="CN32" s="34">
-        <f>COUNTIF($D33:$BS33,CN$5)</f>
+        <f>COUNTIF($D32:$BS32,CN$5)</f>
         <v/>
       </c>
       <c r="CO32" s="29" t="inlineStr">
@@ -8157,30 +7395,18 @@
           <t>Brendaline Nettey</t>
         </is>
       </c>
-      <c r="CP32" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP32" s="29" t="inlineStr"/>
     </row>
     <row r="33" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B33" s="29" t="inlineStr"/>
       <c r="C33" s="29" t="inlineStr">
         <is>
           <t>Dekonti Sayeh</t>
         </is>
       </c>
-      <c r="D33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D33" s="31" t="inlineStr"/>
+      <c r="E33" s="31" t="inlineStr"/>
       <c r="F33" s="31" t="n">
         <v>12</v>
       </c>
@@ -8193,60 +7419,36 @@
       <c r="I33" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" s="31" t="inlineStr"/>
+      <c r="K33" s="31" t="inlineStr"/>
       <c r="L33" s="31" t="n">
         <v>12</v>
       </c>
       <c r="M33" s="31" t="n">
         <v>12.08</v>
       </c>
-      <c r="N33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N33" s="31" t="inlineStr"/>
+      <c r="O33" s="31" t="inlineStr"/>
+      <c r="P33" s="31" t="inlineStr"/>
+      <c r="Q33" s="31" t="inlineStr"/>
+      <c r="R33" s="31" t="inlineStr"/>
+      <c r="S33" s="31" t="inlineStr"/>
       <c r="T33" s="31" t="n">
         <v>12</v>
       </c>
       <c r="U33" s="31" t="n">
         <v>12.12</v>
       </c>
-      <c r="V33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="V33" s="31" t="inlineStr"/>
+      <c r="W33" s="31" t="inlineStr"/>
       <c r="X33" s="31" t="n">
         <v>12</v>
       </c>
       <c r="Y33" s="31" t="n">
         <v>12.08</v>
       </c>
-      <c r="Z33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z33" s="31" t="inlineStr"/>
+      <c r="AA33" s="31" t="inlineStr"/>
       <c r="AB33" s="31" t="n">
         <v>12</v>
       </c>
@@ -8372,15 +7574,15 @@
         <v/>
       </c>
       <c r="CL33" s="34">
-        <f>COUNTIF($D34:$BS34,CL$5)</f>
+        <f>COUNTIF($D33:$BS33,CL$5)</f>
         <v/>
       </c>
       <c r="CM33" s="34">
-        <f>COUNTIF($D34:$BS34,CM$5)</f>
+        <f>COUNTIF($D33:$BS33,CM$5)</f>
         <v/>
       </c>
       <c r="CN33" s="34">
-        <f>COUNTIF($D34:$BS34,CN$5)</f>
+        <f>COUNTIF($D33:$BS33,CN$5)</f>
         <v/>
       </c>
       <c r="CO33" s="29" t="inlineStr">
@@ -8388,30 +7590,18 @@
           <t>Dekonti Sayeh</t>
         </is>
       </c>
-      <c r="CP33" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP33" s="29" t="inlineStr"/>
     </row>
     <row r="34" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B34" s="29" t="inlineStr"/>
       <c r="C34" s="29" t="inlineStr">
         <is>
           <t>Jocelyn Andrade</t>
         </is>
       </c>
-      <c r="D34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D34" s="31" t="inlineStr"/>
+      <c r="E34" s="31" t="inlineStr"/>
       <c r="F34" s="31" t="n">
         <v>8.5</v>
       </c>
@@ -8442,18 +7632,10 @@
       <c r="O34" s="31" t="n">
         <v>8.02</v>
       </c>
-      <c r="P34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P34" s="31" t="inlineStr"/>
+      <c r="Q34" s="31" t="inlineStr"/>
+      <c r="R34" s="31" t="inlineStr"/>
+      <c r="S34" s="31" t="inlineStr"/>
       <c r="T34" s="31" t="n">
         <v>8.5</v>
       </c>
@@ -8484,12 +7666,8 @@
       <c r="AC34" s="31" t="n">
         <v>7.53</v>
       </c>
-      <c r="AD34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD34" s="31" t="inlineStr"/>
+      <c r="AE34" s="31" t="inlineStr"/>
       <c r="AF34" s="31" t="n"/>
       <c r="AG34" s="31" t="n"/>
       <c r="AH34" s="31" t="n"/>
@@ -8603,15 +7781,15 @@
         <v/>
       </c>
       <c r="CL34" s="34">
-        <f>COUNTIF($D35:$BS35,CL$5)</f>
+        <f>COUNTIF($D34:$BS34,CL$5)</f>
         <v/>
       </c>
       <c r="CM34" s="34">
-        <f>COUNTIF($D35:$BS35,CM$5)</f>
+        <f>COUNTIF($D34:$BS34,CM$5)</f>
         <v/>
       </c>
       <c r="CN34" s="34">
-        <f>COUNTIF($D35:$BS35,CN$5)</f>
+        <f>COUNTIF($D34:$BS34,CN$5)</f>
         <v/>
       </c>
       <c r="CO34" s="29" t="inlineStr">
@@ -8619,36 +7797,20 @@
           <t>Jocelyn Andrade</t>
         </is>
       </c>
-      <c r="CP34" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP34" s="29" t="inlineStr"/>
     </row>
     <row r="35" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B35" s="29" t="inlineStr"/>
       <c r="C35" s="29" t="inlineStr">
         <is>
           <t>JOSELUIS JIMENEZ</t>
         </is>
       </c>
-      <c r="D35" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D35" s="31" t="inlineStr"/>
+      <c r="E35" s="31" t="inlineStr"/>
+      <c r="F35" s="31" t="inlineStr"/>
+      <c r="G35" s="31" t="inlineStr"/>
       <c r="H35" s="31" t="n">
         <v>11</v>
       </c>
@@ -8679,12 +7841,8 @@
       <c r="Q35" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="R35" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R35" s="31" t="inlineStr"/>
+      <c r="S35" s="31" t="inlineStr"/>
       <c r="T35" s="31" t="n">
         <v>8</v>
       </c>
@@ -8834,15 +7992,15 @@
         <v/>
       </c>
       <c r="CL35" s="34">
-        <f>COUNTIF($D36:$BS36,CL$5)</f>
+        <f>COUNTIF($D35:$BS35,CL$5)</f>
         <v/>
       </c>
       <c r="CM35" s="34">
-        <f>COUNTIF($D36:$BS36,CM$5)</f>
+        <f>COUNTIF($D35:$BS35,CM$5)</f>
         <v/>
       </c>
       <c r="CN35" s="34">
-        <f>COUNTIF($D36:$BS36,CN$5)</f>
+        <f>COUNTIF($D35:$BS35,CN$5)</f>
         <v/>
       </c>
       <c r="CO35" s="29" t="inlineStr">
@@ -8850,36 +8008,20 @@
           <t>JOSELUIS JIMENEZ</t>
         </is>
       </c>
-      <c r="CP35" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP35" s="29" t="inlineStr"/>
     </row>
     <row r="36" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B36" s="29" t="inlineStr"/>
       <c r="C36" s="29" t="inlineStr">
         <is>
           <t>ZO PARI BOCHUNG</t>
         </is>
       </c>
-      <c r="D36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D36" s="31" t="inlineStr"/>
+      <c r="E36" s="31" t="inlineStr"/>
+      <c r="F36" s="31" t="inlineStr"/>
+      <c r="G36" s="31" t="inlineStr"/>
       <c r="H36" s="31" t="n">
         <v>10</v>
       </c>
@@ -8904,24 +8046,12 @@
       <c r="O36" s="31" t="n">
         <v>7.93</v>
       </c>
-      <c r="P36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P36" s="31" t="inlineStr"/>
+      <c r="Q36" s="31" t="inlineStr"/>
+      <c r="R36" s="31" t="inlineStr"/>
+      <c r="S36" s="31" t="inlineStr"/>
+      <c r="T36" s="31" t="inlineStr"/>
+      <c r="U36" s="31" t="inlineStr"/>
       <c r="V36" s="31" t="n">
         <v>10</v>
       </c>
@@ -8946,12 +8076,8 @@
       <c r="AC36" s="31" t="n">
         <v>9.550000000000001</v>
       </c>
-      <c r="AD36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD36" s="31" t="inlineStr"/>
+      <c r="AE36" s="31" t="inlineStr"/>
       <c r="AF36" s="31" t="n"/>
       <c r="AG36" s="31" t="n"/>
       <c r="AH36" s="31" t="n"/>
@@ -9065,15 +8191,15 @@
         <v/>
       </c>
       <c r="CL36" s="34">
-        <f>COUNTIF($D37:$BS37,CL$5)</f>
+        <f>COUNTIF($D36:$BS36,CL$5)</f>
         <v/>
       </c>
       <c r="CM36" s="34">
-        <f>COUNTIF($D37:$BS37,CM$5)</f>
+        <f>COUNTIF($D36:$BS36,CM$5)</f>
         <v/>
       </c>
       <c r="CN36" s="34">
-        <f>COUNTIF($D37:$BS37,CN$5)</f>
+        <f>COUNTIF($D36:$BS36,CN$5)</f>
         <v/>
       </c>
       <c r="CO36" s="29" t="inlineStr">
@@ -9081,36 +8207,20 @@
           <t>ZO PARI BOCHUNG</t>
         </is>
       </c>
-      <c r="CP36" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP36" s="29" t="inlineStr"/>
     </row>
     <row r="37" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="36" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B37" s="36" t="inlineStr"/>
       <c r="C37" s="29" t="inlineStr">
         <is>
           <t>TERRI STROBEL</t>
         </is>
       </c>
-      <c r="D37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D37" s="31" t="inlineStr"/>
+      <c r="E37" s="31" t="inlineStr"/>
+      <c r="F37" s="31" t="inlineStr"/>
+      <c r="G37" s="31" t="inlineStr"/>
       <c r="H37" s="31" t="n">
         <v>10</v>
       </c>
@@ -9135,24 +8245,12 @@
       <c r="O37" s="31" t="n">
         <v>13.7</v>
       </c>
-      <c r="P37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P37" s="31" t="inlineStr"/>
+      <c r="Q37" s="31" t="inlineStr"/>
+      <c r="R37" s="31" t="inlineStr"/>
+      <c r="S37" s="31" t="inlineStr"/>
+      <c r="T37" s="31" t="inlineStr"/>
+      <c r="U37" s="31" t="inlineStr"/>
       <c r="V37" s="31" t="n">
         <v>10</v>
       </c>
@@ -9177,12 +8275,8 @@
       <c r="AC37" s="31" t="n">
         <v>12.78</v>
       </c>
-      <c r="AD37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD37" s="31" t="inlineStr"/>
+      <c r="AE37" s="31" t="inlineStr"/>
       <c r="AF37" s="31" t="n"/>
       <c r="AG37" s="31" t="n"/>
       <c r="AH37" s="31" t="n"/>
@@ -9296,15 +8390,15 @@
         <v/>
       </c>
       <c r="CL37" s="34">
-        <f>COUNTIF($D38:$BS38,CL$5)</f>
+        <f>COUNTIF($D37:$BS37,CL$5)</f>
         <v/>
       </c>
       <c r="CM37" s="34">
-        <f>COUNTIF($D38:$BS38,CM$5)</f>
+        <f>COUNTIF($D37:$BS37,CM$5)</f>
         <v/>
       </c>
       <c r="CN37" s="34">
-        <f>COUNTIF($D38:$BS38,CN$5)</f>
+        <f>COUNTIF($D37:$BS37,CN$5)</f>
         <v/>
       </c>
       <c r="CO37" s="29" t="inlineStr">
@@ -9312,36 +8406,20 @@
           <t>TERRI STROBEL</t>
         </is>
       </c>
-      <c r="CP37" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP37" s="29" t="inlineStr"/>
     </row>
     <row r="38" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B38" s="29" t="inlineStr"/>
       <c r="C38" s="29" t="inlineStr">
         <is>
           <t>Adriana Orellana</t>
         </is>
       </c>
-      <c r="D38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D38" s="31" t="inlineStr"/>
+      <c r="E38" s="31" t="inlineStr"/>
+      <c r="F38" s="31" t="inlineStr"/>
+      <c r="G38" s="31" t="inlineStr"/>
       <c r="H38" s="31" t="n">
         <v>12</v>
       </c>
@@ -9366,24 +8444,12 @@
       <c r="O38" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="P38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P38" s="31" t="inlineStr"/>
+      <c r="Q38" s="31" t="inlineStr"/>
+      <c r="R38" s="31" t="inlineStr"/>
+      <c r="S38" s="31" t="inlineStr"/>
+      <c r="T38" s="31" t="inlineStr"/>
+      <c r="U38" s="31" t="inlineStr"/>
       <c r="V38" s="31" t="n">
         <v>12</v>
       </c>
@@ -9402,18 +8468,10 @@
       <c r="AA38" s="31" t="n">
         <v>10.52</v>
       </c>
-      <c r="AB38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB38" s="31" t="inlineStr"/>
+      <c r="AC38" s="31" t="inlineStr"/>
+      <c r="AD38" s="31" t="inlineStr"/>
+      <c r="AE38" s="31" t="inlineStr"/>
       <c r="AF38" s="31" t="n"/>
       <c r="AG38" s="31" t="n"/>
       <c r="AH38" s="31" t="n"/>
@@ -9527,15 +8585,15 @@
         <v/>
       </c>
       <c r="CL38" s="34">
-        <f>COUNTIF($D39:$BS39,CL$5)</f>
+        <f>COUNTIF($D38:$BS38,CL$5)</f>
         <v/>
       </c>
       <c r="CM38" s="34">
-        <f>COUNTIF($D39:$BS39,CM$5)</f>
+        <f>COUNTIF($D38:$BS38,CM$5)</f>
         <v/>
       </c>
       <c r="CN38" s="34">
-        <f>COUNTIF($D39:$BS39,CN$5)</f>
+        <f>COUNTIF($D38:$BS38,CN$5)</f>
         <v/>
       </c>
       <c r="CO38" s="29" t="inlineStr">
@@ -9543,36 +8601,20 @@
           <t>Adriana Orellana</t>
         </is>
       </c>
-      <c r="CP38" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP38" s="29" t="inlineStr"/>
     </row>
     <row r="39" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B39" s="29" t="inlineStr"/>
       <c r="C39" s="29" t="inlineStr">
         <is>
           <t>Pragnya Tatikonda</t>
         </is>
       </c>
-      <c r="D39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D39" s="31" t="inlineStr"/>
+      <c r="E39" s="31" t="inlineStr"/>
+      <c r="F39" s="31" t="inlineStr"/>
+      <c r="G39" s="31" t="inlineStr"/>
       <c r="H39" s="31" t="n">
         <v>0</v>
       </c>
@@ -9603,12 +8645,8 @@
       <c r="Q39" s="31" t="n">
         <v>5.6</v>
       </c>
-      <c r="R39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R39" s="31" t="inlineStr"/>
+      <c r="S39" s="31" t="inlineStr"/>
       <c r="T39" s="31" t="n">
         <v>0</v>
       </c>
@@ -9633,18 +8671,10 @@
       <c r="AA39" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="AB39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB39" s="31" t="inlineStr"/>
+      <c r="AC39" s="31" t="inlineStr"/>
+      <c r="AD39" s="31" t="inlineStr"/>
+      <c r="AE39" s="31" t="inlineStr"/>
       <c r="AF39" s="31" t="n"/>
       <c r="AG39" s="31" t="n"/>
       <c r="AH39" s="31" t="n"/>
@@ -9758,15 +8788,15 @@
         <v/>
       </c>
       <c r="CL39" s="34">
-        <f>COUNTIF($D40:$BS40,CL$5)</f>
+        <f>COUNTIF($D39:$BS39,CL$5)</f>
         <v/>
       </c>
       <c r="CM39" s="34">
-        <f>COUNTIF($D40:$BS40,CM$5)</f>
+        <f>COUNTIF($D39:$BS39,CM$5)</f>
         <v/>
       </c>
       <c r="CN39" s="34">
-        <f>COUNTIF($D40:$BS40,CN$5)</f>
+        <f>COUNTIF($D39:$BS39,CN$5)</f>
         <v/>
       </c>
       <c r="CO39" s="29" t="inlineStr">
@@ -9774,36 +8804,20 @@
           <t>Pragnya Tatikonda</t>
         </is>
       </c>
-      <c r="CP39" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP39" s="29" t="inlineStr"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B40" s="29" t="inlineStr"/>
       <c r="C40" s="29" t="inlineStr">
         <is>
           <t>Hiwot Mideksa</t>
         </is>
       </c>
-      <c r="D40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D40" s="31" t="inlineStr"/>
+      <c r="E40" s="31" t="inlineStr"/>
+      <c r="F40" s="31" t="inlineStr"/>
+      <c r="G40" s="31" t="inlineStr"/>
       <c r="H40" s="31" t="n">
         <v>0</v>
       </c>
@@ -9834,12 +8848,8 @@
       <c r="Q40" s="31" t="n">
         <v>8.35</v>
       </c>
-      <c r="R40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R40" s="31" t="inlineStr"/>
+      <c r="S40" s="31" t="inlineStr"/>
       <c r="T40" s="31" t="n">
         <v>0</v>
       </c>
@@ -9864,18 +8874,10 @@
       <c r="AA40" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="AB40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB40" s="31" t="inlineStr"/>
+      <c r="AC40" s="31" t="inlineStr"/>
+      <c r="AD40" s="31" t="inlineStr"/>
+      <c r="AE40" s="31" t="inlineStr"/>
       <c r="AF40" s="31" t="n"/>
       <c r="AG40" s="31" t="n"/>
       <c r="AH40" s="31" t="n"/>
@@ -9989,15 +8991,15 @@
         <v/>
       </c>
       <c r="CL40" s="34">
-        <f>COUNTIF($D41:$BS41,CL$5)</f>
+        <f>COUNTIF($D40:$BS40,CL$5)</f>
         <v/>
       </c>
       <c r="CM40" s="34">
-        <f>COUNTIF($D41:$BS41,CM$5)</f>
+        <f>COUNTIF($D40:$BS40,CM$5)</f>
         <v/>
       </c>
       <c r="CN40" s="34">
-        <f>COUNTIF($D41:$BS41,CN$5)</f>
+        <f>COUNTIF($D40:$BS40,CN$5)</f>
         <v/>
       </c>
       <c r="CO40" s="29" t="inlineStr">
@@ -10005,36 +9007,20 @@
           <t>Hiwot Mideksa</t>
         </is>
       </c>
-      <c r="CP40" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP40" s="29" t="inlineStr"/>
     </row>
     <row r="41" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A41" s="38" t="n"/>
-      <c r="B41" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B41" s="29" t="inlineStr"/>
       <c r="C41" s="29" t="inlineStr">
         <is>
           <t>Shivani Kapoor</t>
         </is>
       </c>
-      <c r="D41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D41" s="31" t="inlineStr"/>
+      <c r="E41" s="31" t="inlineStr"/>
+      <c r="F41" s="31" t="inlineStr"/>
+      <c r="G41" s="31" t="inlineStr"/>
       <c r="H41" s="31" t="n">
         <v>0</v>
       </c>
@@ -10065,12 +9051,8 @@
       <c r="Q41" s="31" t="n">
         <v>8.35</v>
       </c>
-      <c r="R41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R41" s="31" t="inlineStr"/>
+      <c r="S41" s="31" t="inlineStr"/>
       <c r="T41" s="31" t="n">
         <v>0</v>
       </c>
@@ -10095,18 +9077,10 @@
       <c r="AA41" s="31" t="n">
         <v>9.43</v>
       </c>
-      <c r="AB41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB41" s="31" t="inlineStr"/>
+      <c r="AC41" s="31" t="inlineStr"/>
+      <c r="AD41" s="31" t="inlineStr"/>
+      <c r="AE41" s="31" t="inlineStr"/>
       <c r="AF41" s="31" t="n"/>
       <c r="AG41" s="31" t="n"/>
       <c r="AH41" s="31" t="n"/>
@@ -10220,15 +9194,15 @@
         <v/>
       </c>
       <c r="CL41" s="34">
-        <f>COUNTIF($D42:$BS42,CL$5)</f>
+        <f>COUNTIF($D41:$BS41,CL$5)</f>
         <v/>
       </c>
       <c r="CM41" s="34">
-        <f>COUNTIF($D42:$BS42,CM$5)</f>
+        <f>COUNTIF($D41:$BS41,CM$5)</f>
         <v/>
       </c>
       <c r="CN41" s="34">
-        <f>COUNTIF($D42:$BS42,CN$5)</f>
+        <f>COUNTIF($D41:$BS41,CN$5)</f>
         <v/>
       </c>
       <c r="CO41" s="29" t="inlineStr">
@@ -10236,36 +9210,20 @@
           <t>Shivani Kapoor</t>
         </is>
       </c>
-      <c r="CP41" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP41" s="29" t="inlineStr"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B42" s="29" t="inlineStr"/>
       <c r="C42" s="29" t="inlineStr">
         <is>
           <t>Maria Wingo</t>
         </is>
       </c>
-      <c r="D42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D42" s="31" t="inlineStr"/>
+      <c r="E42" s="31" t="inlineStr"/>
+      <c r="F42" s="31" t="inlineStr"/>
+      <c r="G42" s="31" t="inlineStr"/>
       <c r="H42" s="31" t="n">
         <v>0</v>
       </c>
@@ -10278,66 +9236,38 @@
       <c r="K42" s="31" t="n">
         <v>6.27</v>
       </c>
-      <c r="L42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="L42" s="31" t="inlineStr"/>
+      <c r="M42" s="31" t="inlineStr"/>
       <c r="N42" s="31" t="n">
         <v>7</v>
       </c>
       <c r="O42" s="31" t="n">
         <v>5.97</v>
       </c>
-      <c r="P42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P42" s="31" t="inlineStr"/>
+      <c r="Q42" s="31" t="inlineStr"/>
+      <c r="R42" s="31" t="inlineStr"/>
+      <c r="S42" s="31" t="inlineStr"/>
+      <c r="T42" s="31" t="inlineStr"/>
+      <c r="U42" s="31" t="inlineStr"/>
+      <c r="V42" s="31" t="inlineStr"/>
+      <c r="W42" s="31" t="inlineStr"/>
       <c r="X42" s="31" t="n">
         <v>7</v>
       </c>
       <c r="Y42" s="31" t="n">
         <v>6.4</v>
       </c>
-      <c r="Z42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z42" s="31" t="inlineStr"/>
+      <c r="AA42" s="31" t="inlineStr"/>
       <c r="AB42" s="31" t="n">
         <v>7</v>
       </c>
       <c r="AC42" s="31" t="n">
         <v>5.25</v>
       </c>
-      <c r="AD42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD42" s="31" t="inlineStr"/>
+      <c r="AE42" s="31" t="inlineStr"/>
       <c r="AF42" s="31" t="n"/>
       <c r="AG42" s="31" t="n"/>
       <c r="AH42" s="31" t="n"/>
@@ -10451,15 +9381,15 @@
         <v/>
       </c>
       <c r="CL42" s="34">
-        <f>COUNTIF($D43:$BS43,CL$5)</f>
+        <f>COUNTIF($D42:$BS42,CL$5)</f>
         <v/>
       </c>
       <c r="CM42" s="34">
-        <f>COUNTIF($D43:$BS43,CM$5)</f>
+        <f>COUNTIF($D42:$BS42,CM$5)</f>
         <v/>
       </c>
       <c r="CN42" s="34">
-        <f>COUNTIF($D43:$BS43,CN$5)</f>
+        <f>COUNTIF($D42:$BS42,CN$5)</f>
         <v/>
       </c>
       <c r="CO42" s="29" t="inlineStr">
@@ -10467,36 +9397,20 @@
           <t>Maria Wingo</t>
         </is>
       </c>
-      <c r="CP42" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP42" s="29" t="inlineStr"/>
     </row>
     <row r="43" ht="26.25" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B43" s="29" t="inlineStr"/>
       <c r="C43" s="29" t="inlineStr">
         <is>
           <t>Anuj Kumar Singh Malik</t>
         </is>
       </c>
-      <c r="D43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D43" s="31" t="inlineStr"/>
+      <c r="E43" s="31" t="inlineStr"/>
+      <c r="F43" s="31" t="inlineStr"/>
+      <c r="G43" s="31" t="inlineStr"/>
       <c r="H43" s="31" t="n">
         <v>0</v>
       </c>
@@ -10557,18 +9471,10 @@
       <c r="AA43" s="31" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="AB43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB43" s="31" t="inlineStr"/>
+      <c r="AC43" s="31" t="inlineStr"/>
+      <c r="AD43" s="31" t="inlineStr"/>
+      <c r="AE43" s="31" t="inlineStr"/>
       <c r="AF43" s="31" t="n"/>
       <c r="AG43" s="31" t="n"/>
       <c r="AH43" s="31" t="n"/>
@@ -10682,15 +9588,15 @@
         <v/>
       </c>
       <c r="CL43" s="34">
-        <f>COUNTIF($D44:$BS44,CL$5)</f>
+        <f>COUNTIF($D43:$BS43,CL$5)</f>
         <v/>
       </c>
       <c r="CM43" s="34">
-        <f>COUNTIF($D44:$BS44,CM$5)</f>
+        <f>COUNTIF($D43:$BS43,CM$5)</f>
         <v/>
       </c>
       <c r="CN43" s="34">
-        <f>COUNTIF($D44:$BS44,CN$5)</f>
+        <f>COUNTIF($D43:$BS43,CN$5)</f>
         <v/>
       </c>
       <c r="CO43" s="29" t="inlineStr">
@@ -10698,108 +9604,60 @@
           <t>Anuj Kumar Singh Malik</t>
         </is>
       </c>
-      <c r="CP43" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP43" s="29" t="inlineStr"/>
     </row>
     <row r="44" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B44" s="29" t="inlineStr"/>
       <c r="C44" s="29" t="inlineStr">
         <is>
           <t>Mahashweta Ghosh</t>
         </is>
       </c>
-      <c r="D44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D44" s="31" t="inlineStr"/>
+      <c r="E44" s="31" t="inlineStr"/>
+      <c r="F44" s="31" t="inlineStr"/>
+      <c r="G44" s="31" t="inlineStr"/>
+      <c r="H44" s="31" t="inlineStr"/>
+      <c r="I44" s="31" t="inlineStr"/>
       <c r="J44" s="31" t="n">
         <v>6</v>
       </c>
       <c r="K44" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="L44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="L44" s="31" t="inlineStr"/>
+      <c r="M44" s="31" t="inlineStr"/>
       <c r="N44" s="31" t="n">
         <v>6</v>
       </c>
       <c r="O44" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="P44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P44" s="31" t="inlineStr"/>
+      <c r="Q44" s="31" t="inlineStr"/>
+      <c r="R44" s="31" t="inlineStr"/>
+      <c r="S44" s="31" t="inlineStr"/>
+      <c r="T44" s="31" t="inlineStr"/>
+      <c r="U44" s="31" t="inlineStr"/>
+      <c r="V44" s="31" t="inlineStr"/>
+      <c r="W44" s="31" t="inlineStr"/>
       <c r="X44" s="31" t="n">
         <v>6</v>
       </c>
       <c r="Y44" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="Z44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z44" s="31" t="inlineStr"/>
+      <c r="AA44" s="31" t="inlineStr"/>
       <c r="AB44" s="31" t="n">
         <v>6</v>
       </c>
       <c r="AC44" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="AD44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD44" s="31" t="inlineStr"/>
+      <c r="AE44" s="31" t="inlineStr"/>
       <c r="AF44" s="31" t="n"/>
       <c r="AG44" s="31" t="n"/>
       <c r="AH44" s="31" t="n"/>
@@ -10913,15 +9771,15 @@
         <v/>
       </c>
       <c r="CL44" s="34">
-        <f>COUNTIF($D45:$BS45,CL$5)</f>
+        <f>COUNTIF($D44:$BS44,CL$5)</f>
         <v/>
       </c>
       <c r="CM44" s="34">
-        <f>COUNTIF($D45:$BS45,CM$5)</f>
+        <f>COUNTIF($D44:$BS44,CM$5)</f>
         <v/>
       </c>
       <c r="CN44" s="34">
-        <f>COUNTIF($D45:$BS45,CN$5)</f>
+        <f>COUNTIF($D44:$BS44,CN$5)</f>
         <v/>
       </c>
       <c r="CO44" s="29" t="inlineStr">
@@ -10929,108 +9787,60 @@
           <t>Mahashweta Ghosh</t>
         </is>
       </c>
-      <c r="CP44" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP44" s="29" t="inlineStr"/>
     </row>
     <row r="45" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B45" s="29" t="inlineStr"/>
       <c r="C45" s="29" t="inlineStr">
         <is>
           <t>Thomas Pearce</t>
         </is>
       </c>
-      <c r="D45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D45" s="31" t="inlineStr"/>
+      <c r="E45" s="31" t="inlineStr"/>
+      <c r="F45" s="31" t="inlineStr"/>
+      <c r="G45" s="31" t="inlineStr"/>
+      <c r="H45" s="31" t="inlineStr"/>
+      <c r="I45" s="31" t="inlineStr"/>
       <c r="J45" s="31" t="n">
         <v>0</v>
       </c>
       <c r="K45" s="31" t="n">
         <v>2.73</v>
       </c>
-      <c r="L45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="L45" s="31" t="inlineStr"/>
+      <c r="M45" s="31" t="inlineStr"/>
       <c r="N45" s="31" t="n">
         <v>0</v>
       </c>
       <c r="O45" s="31" t="n">
         <v>2.7</v>
       </c>
-      <c r="P45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="P45" s="31" t="inlineStr"/>
+      <c r="Q45" s="31" t="inlineStr"/>
+      <c r="R45" s="31" t="inlineStr"/>
+      <c r="S45" s="31" t="inlineStr"/>
+      <c r="T45" s="31" t="inlineStr"/>
+      <c r="U45" s="31" t="inlineStr"/>
+      <c r="V45" s="31" t="inlineStr"/>
+      <c r="W45" s="31" t="inlineStr"/>
       <c r="X45" s="31" t="n">
         <v>0</v>
       </c>
       <c r="Y45" s="31" t="n">
         <v>1.78</v>
       </c>
-      <c r="Z45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z45" s="31" t="inlineStr"/>
+      <c r="AA45" s="31" t="inlineStr"/>
       <c r="AB45" s="31" t="n">
         <v>0</v>
       </c>
       <c r="AC45" s="31" t="n">
         <v>2.85</v>
       </c>
-      <c r="AD45" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD45" s="31" t="inlineStr"/>
+      <c r="AE45" s="31" t="inlineStr"/>
       <c r="AF45" s="31" t="n"/>
       <c r="AG45" s="31" t="n"/>
       <c r="AH45" s="31" t="n"/>
@@ -11144,15 +9954,15 @@
         <v/>
       </c>
       <c r="CL45" s="34">
-        <f>COUNTIF($D46:$BS46,CL$5)</f>
+        <f>COUNTIF($D45:$BS45,CL$5)</f>
         <v/>
       </c>
       <c r="CM45" s="34">
-        <f>COUNTIF($D46:$BS46,CM$5)</f>
+        <f>COUNTIF($D45:$BS45,CM$5)</f>
         <v/>
       </c>
       <c r="CN45" s="34">
-        <f>COUNTIF($D46:$BS46,CN$5)</f>
+        <f>COUNTIF($D45:$BS45,CN$5)</f>
         <v/>
       </c>
       <c r="CO45" s="29" t="inlineStr">
@@ -11160,108 +9970,52 @@
           <t>Thomas Pearce</t>
         </is>
       </c>
-      <c r="CP45" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP45" s="29" t="inlineStr"/>
     </row>
     <row r="46" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B46" s="29" t="inlineStr"/>
       <c r="C46" s="29" t="inlineStr">
         <is>
           <t>ONEIDA CANAS CHICAS</t>
         </is>
       </c>
-      <c r="D46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D46" s="31" t="inlineStr"/>
+      <c r="E46" s="31" t="inlineStr"/>
+      <c r="F46" s="31" t="inlineStr"/>
+      <c r="G46" s="31" t="inlineStr"/>
+      <c r="H46" s="31" t="inlineStr"/>
+      <c r="I46" s="31" t="inlineStr"/>
+      <c r="J46" s="31" t="inlineStr"/>
+      <c r="K46" s="31" t="inlineStr"/>
       <c r="L46" s="31" t="n">
         <v>3</v>
       </c>
       <c r="M46" s="31" t="n">
         <v>3.02</v>
       </c>
-      <c r="N46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="N46" s="31" t="inlineStr"/>
+      <c r="O46" s="31" t="inlineStr"/>
+      <c r="P46" s="31" t="inlineStr"/>
+      <c r="Q46" s="31" t="inlineStr"/>
+      <c r="R46" s="31" t="inlineStr"/>
+      <c r="S46" s="31" t="inlineStr"/>
+      <c r="T46" s="31" t="inlineStr"/>
+      <c r="U46" s="31" t="inlineStr"/>
+      <c r="V46" s="31" t="inlineStr"/>
+      <c r="W46" s="31" t="inlineStr"/>
+      <c r="X46" s="31" t="inlineStr"/>
+      <c r="Y46" s="31" t="inlineStr"/>
       <c r="Z46" s="31" t="n">
         <v>3</v>
       </c>
       <c r="AA46" s="31" t="n">
         <v>3.35</v>
       </c>
-      <c r="AB46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB46" s="31" t="inlineStr"/>
+      <c r="AC46" s="31" t="inlineStr"/>
+      <c r="AD46" s="31" t="inlineStr"/>
+      <c r="AE46" s="31" t="inlineStr"/>
       <c r="AF46" s="31" t="n"/>
       <c r="AG46" s="31" t="n"/>
       <c r="AH46" s="31" t="n"/>
@@ -11375,15 +10129,15 @@
         <v/>
       </c>
       <c r="CL46" s="34">
-        <f>COUNTIF($D47:$BS47,CL$5)</f>
+        <f>COUNTIF($D46:$BS46,CL$5)</f>
         <v/>
       </c>
       <c r="CM46" s="34">
-        <f>COUNTIF($D47:$BS47,CM$5)</f>
+        <f>COUNTIF($D46:$BS46,CM$5)</f>
         <v/>
       </c>
       <c r="CN46" s="34">
-        <f>COUNTIF($D47:$BS47,CN$5)</f>
+        <f>COUNTIF($D46:$BS46,CN$5)</f>
         <v/>
       </c>
       <c r="CO46" s="29" t="inlineStr">
@@ -11391,108 +10145,48 @@
           <t>ONEIDA CANAS CHICAS</t>
         </is>
       </c>
-      <c r="CP46" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP46" s="29" t="inlineStr"/>
     </row>
     <row r="47" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B47" s="29" t="inlineStr"/>
       <c r="C47" s="29" t="inlineStr">
         <is>
           <t>NICOLE HICKSON</t>
         </is>
       </c>
-      <c r="D47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D47" s="31" t="inlineStr"/>
+      <c r="E47" s="31" t="inlineStr"/>
+      <c r="F47" s="31" t="inlineStr"/>
+      <c r="G47" s="31" t="inlineStr"/>
+      <c r="H47" s="31" t="inlineStr"/>
+      <c r="I47" s="31" t="inlineStr"/>
+      <c r="J47" s="31" t="inlineStr"/>
+      <c r="K47" s="31" t="inlineStr"/>
+      <c r="L47" s="31" t="inlineStr"/>
+      <c r="M47" s="31" t="inlineStr"/>
+      <c r="N47" s="31" t="inlineStr"/>
+      <c r="O47" s="31" t="inlineStr"/>
       <c r="P47" s="31" t="n">
         <v>8</v>
       </c>
       <c r="Q47" s="31" t="n">
         <v>7.05</v>
       </c>
-      <c r="R47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R47" s="31" t="inlineStr"/>
+      <c r="S47" s="31" t="inlineStr"/>
+      <c r="T47" s="31" t="inlineStr"/>
+      <c r="U47" s="31" t="inlineStr"/>
+      <c r="V47" s="31" t="inlineStr"/>
+      <c r="W47" s="31" t="inlineStr"/>
+      <c r="X47" s="31" t="inlineStr"/>
+      <c r="Y47" s="31" t="inlineStr"/>
+      <c r="Z47" s="31" t="inlineStr"/>
+      <c r="AA47" s="31" t="inlineStr"/>
+      <c r="AB47" s="31" t="inlineStr"/>
+      <c r="AC47" s="31" t="inlineStr"/>
+      <c r="AD47" s="31" t="inlineStr"/>
+      <c r="AE47" s="31" t="inlineStr"/>
       <c r="AF47" s="31" t="n"/>
       <c r="AG47" s="31" t="n"/>
       <c r="AH47" s="31" t="n"/>
@@ -11606,15 +10300,15 @@
         <v/>
       </c>
       <c r="CL47" s="34">
-        <f>COUNTIF($D48:$BS48,CL$5)</f>
+        <f>COUNTIF($D47:$BS47,CL$5)</f>
         <v/>
       </c>
       <c r="CM47" s="34">
-        <f>COUNTIF($D48:$BS48,CM$5)</f>
+        <f>COUNTIF($D47:$BS47,CM$5)</f>
         <v/>
       </c>
       <c r="CN47" s="34">
-        <f>COUNTIF($D48:$BS48,CN$5)</f>
+        <f>COUNTIF($D47:$BS47,CN$5)</f>
         <v/>
       </c>
       <c r="CO47" s="29" t="inlineStr">
@@ -11622,102 +10316,46 @@
           <t>NICOLE HICKSON</t>
         </is>
       </c>
-      <c r="CP47" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP47" s="29" t="inlineStr"/>
     </row>
     <row r="48" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B48" s="29" t="inlineStr"/>
       <c r="C48" s="29" t="inlineStr">
         <is>
           <t>SAMHITA GHORAKAVI</t>
         </is>
       </c>
-      <c r="D48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D48" s="31" t="inlineStr"/>
+      <c r="E48" s="31" t="inlineStr"/>
+      <c r="F48" s="31" t="inlineStr"/>
+      <c r="G48" s="31" t="inlineStr"/>
+      <c r="H48" s="31" t="inlineStr"/>
+      <c r="I48" s="31" t="inlineStr"/>
+      <c r="J48" s="31" t="inlineStr"/>
+      <c r="K48" s="31" t="inlineStr"/>
+      <c r="L48" s="31" t="inlineStr"/>
+      <c r="M48" s="31" t="inlineStr"/>
+      <c r="N48" s="31" t="inlineStr"/>
+      <c r="O48" s="31" t="inlineStr"/>
       <c r="P48" s="31" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="31" t="n">
         <v>8.17</v>
       </c>
-      <c r="R48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="R48" s="31" t="inlineStr"/>
+      <c r="S48" s="31" t="inlineStr"/>
+      <c r="T48" s="31" t="inlineStr"/>
+      <c r="U48" s="31" t="inlineStr"/>
+      <c r="V48" s="31" t="inlineStr"/>
+      <c r="W48" s="31" t="inlineStr"/>
+      <c r="X48" s="31" t="inlineStr"/>
+      <c r="Y48" s="31" t="inlineStr"/>
+      <c r="Z48" s="31" t="inlineStr"/>
+      <c r="AA48" s="31" t="inlineStr"/>
+      <c r="AB48" s="31" t="inlineStr"/>
+      <c r="AC48" s="31" t="inlineStr"/>
       <c r="AD48" s="31" t="n">
         <v>8</v>
       </c>
@@ -11837,15 +10475,15 @@
         <v/>
       </c>
       <c r="CL48" s="34">
-        <f>COUNTIF($D49:$BS49,CL$5)</f>
+        <f>COUNTIF($D48:$BS48,CL$5)</f>
         <v/>
       </c>
       <c r="CM48" s="34">
-        <f>COUNTIF($D49:$BS49,CM$5)</f>
+        <f>COUNTIF($D48:$BS48,CM$5)</f>
         <v/>
       </c>
       <c r="CN48" s="34">
-        <f>COUNTIF($D49:$BS49,CN$5)</f>
+        <f>COUNTIF($D48:$BS48,CN$5)</f>
         <v/>
       </c>
       <c r="CO48" s="29" t="inlineStr">
@@ -11853,108 +10491,48 @@
           <t>SAMHITA GHORAKAVI</t>
         </is>
       </c>
-      <c r="CP48" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP48" s="29" t="inlineStr"/>
     </row>
     <row r="49" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B49" s="29" t="inlineStr"/>
       <c r="C49" s="29" t="inlineStr">
         <is>
           <t>Carol Cordrey</t>
         </is>
       </c>
-      <c r="D49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D49" s="31" t="inlineStr"/>
+      <c r="E49" s="31" t="inlineStr"/>
+      <c r="F49" s="31" t="inlineStr"/>
+      <c r="G49" s="31" t="inlineStr"/>
+      <c r="H49" s="31" t="inlineStr"/>
+      <c r="I49" s="31" t="inlineStr"/>
+      <c r="J49" s="31" t="inlineStr"/>
+      <c r="K49" s="31" t="inlineStr"/>
+      <c r="L49" s="31" t="inlineStr"/>
+      <c r="M49" s="31" t="inlineStr"/>
+      <c r="N49" s="31" t="inlineStr"/>
+      <c r="O49" s="31" t="inlineStr"/>
+      <c r="P49" s="31" t="inlineStr"/>
+      <c r="Q49" s="31" t="inlineStr"/>
       <c r="R49" s="31" t="n">
         <v>8</v>
       </c>
       <c r="S49" s="31" t="n">
         <v>8.1</v>
       </c>
-      <c r="T49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="T49" s="31" t="inlineStr"/>
+      <c r="U49" s="31" t="inlineStr"/>
+      <c r="V49" s="31" t="inlineStr"/>
+      <c r="W49" s="31" t="inlineStr"/>
+      <c r="X49" s="31" t="inlineStr"/>
+      <c r="Y49" s="31" t="inlineStr"/>
+      <c r="Z49" s="31" t="inlineStr"/>
+      <c r="AA49" s="31" t="inlineStr"/>
+      <c r="AB49" s="31" t="inlineStr"/>
+      <c r="AC49" s="31" t="inlineStr"/>
+      <c r="AD49" s="31" t="inlineStr"/>
+      <c r="AE49" s="31" t="inlineStr"/>
       <c r="AF49" s="31" t="n"/>
       <c r="AG49" s="31" t="n"/>
       <c r="AH49" s="31" t="n"/>
@@ -12068,15 +10646,15 @@
         <v/>
       </c>
       <c r="CL49" s="34">
-        <f>COUNTIF($D50:$BS50,CL$5)</f>
+        <f>COUNTIF($D49:$BS49,CL$5)</f>
         <v/>
       </c>
       <c r="CM49" s="34">
-        <f>COUNTIF($D50:$BS50,CM$5)</f>
+        <f>COUNTIF($D49:$BS49,CM$5)</f>
         <v/>
       </c>
       <c r="CN49" s="34">
-        <f>COUNTIF($D50:$BS50,CN$5)</f>
+        <f>COUNTIF($D49:$BS49,CN$5)</f>
         <v/>
       </c>
       <c r="CO49" s="29" t="inlineStr">
@@ -12084,102 +10662,42 @@
           <t>Carol Cordrey</t>
         </is>
       </c>
-      <c r="CP49" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP49" s="29" t="inlineStr"/>
     </row>
     <row r="50" ht="24" customHeight="1" s="67" thickBot="1" thickTop="1">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="B50" s="29" t="inlineStr"/>
       <c r="C50" s="29" t="inlineStr">
         <is>
           <t>MARIADAN GONZALEZ VASQUEZ</t>
         </is>
       </c>
-      <c r="D50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="D50" s="31" t="inlineStr"/>
+      <c r="E50" s="31" t="inlineStr"/>
+      <c r="F50" s="31" t="inlineStr"/>
+      <c r="G50" s="31" t="inlineStr"/>
+      <c r="H50" s="31" t="inlineStr"/>
+      <c r="I50" s="31" t="inlineStr"/>
+      <c r="J50" s="31" t="inlineStr"/>
+      <c r="K50" s="31" t="inlineStr"/>
+      <c r="L50" s="31" t="inlineStr"/>
+      <c r="M50" s="31" t="inlineStr"/>
+      <c r="N50" s="31" t="inlineStr"/>
+      <c r="O50" s="31" t="inlineStr"/>
+      <c r="P50" s="31" t="inlineStr"/>
+      <c r="Q50" s="31" t="inlineStr"/>
+      <c r="R50" s="31" t="inlineStr"/>
+      <c r="S50" s="31" t="inlineStr"/>
+      <c r="T50" s="31" t="inlineStr"/>
+      <c r="U50" s="31" t="inlineStr"/>
+      <c r="V50" s="31" t="inlineStr"/>
+      <c r="W50" s="31" t="inlineStr"/>
+      <c r="X50" s="31" t="inlineStr"/>
+      <c r="Y50" s="31" t="inlineStr"/>
+      <c r="Z50" s="31" t="inlineStr"/>
+      <c r="AA50" s="31" t="inlineStr"/>
+      <c r="AB50" s="31" t="inlineStr"/>
+      <c r="AC50" s="31" t="inlineStr"/>
       <c r="AD50" s="31" t="n">
         <v>7</v>
       </c>
@@ -12299,15 +10817,15 @@
         <v/>
       </c>
       <c r="CL50" s="34">
-        <f>COUNTIF($D51:$BS51,CL$5)</f>
+        <f>COUNTIF($D50:$BS50,CL$5)</f>
         <v/>
       </c>
       <c r="CM50" s="34">
-        <f>COUNTIF($D51:$BS51,CM$5)</f>
+        <f>COUNTIF($D50:$BS50,CM$5)</f>
         <v/>
       </c>
       <c r="CN50" s="34">
-        <f>COUNTIF($D51:$BS51,CN$5)</f>
+        <f>COUNTIF($D50:$BS50,CN$5)</f>
         <v/>
       </c>
       <c r="CO50" s="29" t="inlineStr">
@@ -12315,11 +10833,7 @@
           <t>MARIADAN GONZALEZ VASQUEZ</t>
         </is>
       </c>
-      <c r="CP50" s="29" t="inlineStr">
-        <is>
-          <t>Provider/Staff</t>
-        </is>
-      </c>
+      <c r="CP50" s="29" t="inlineStr"/>
     </row>
     <row r="51" ht="24" customHeight="1" s="67" thickTop="1">
       <c r="A51" s="1" t="n"/>
@@ -32761,32 +31275,32 @@
     <mergeCell ref="AZ5:BA5"/>
     <mergeCell ref="BB5:BC5"/>
     <mergeCell ref="BD5:BE5"/>
+    <mergeCell ref="AT5:AU5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="AT5:AU5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="BN5:BO5"/>
     <mergeCell ref="BP5:BQ5"/>
     <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="BL4:BM4"/>
     <mergeCell ref="BN4:BO4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="BT5:BU5"/>
     <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="BR4:BS4"/>
     <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="BR4:BS4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="AP4:AQ4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="CN5:CN6"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AR5:AS5"/>
     <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AJ5:AK5"/>
     <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="AJ5:AK5"/>
     <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Z4:AA4"/>
@@ -32795,16 +31309,16 @@
     <mergeCell ref="BJ5:BK5"/>
     <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="BL5:BM5"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="BH4:BI4"/>
     <mergeCell ref="BJ4:BK4"/>
     <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="BP4:BQ4"/>
     <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="BP4:BQ4"/>
     <mergeCell ref="C1:CN1"/>
     <mergeCell ref="CF4:CH4"/>
     <mergeCell ref="CI5:CK5"/>
